--- a/asm/汇编语言笔记.xlsx
+++ b/asm/汇编语言笔记.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="8"/>
+    <workbookView xWindow="-15" yWindow="3195" windowWidth="15315" windowHeight="3240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="结构图" sheetId="3" r:id="rId1"/>
@@ -17,6 +17,8 @@
     <sheet name="中断" sheetId="8" r:id="rId8"/>
     <sheet name="外设" sheetId="9" r:id="rId9"/>
     <sheet name="端口" sheetId="10" r:id="rId10"/>
+    <sheet name="bochs" sheetId="11" r:id="rId11"/>
+    <sheet name="其它" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
@@ -762,7 +764,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="570">
   <si>
     <t>31       16</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1093,10 +1095,6 @@
   </si>
   <si>
     <t>G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述符索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1973,10 +1971,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8086PC 机可以表示 256 种中断信息的来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中断可分为内中断与外中断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2883,12 +2877,1239 @@
     <t>返回参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>描述符索引</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务间(任务切换)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp TSS|任务门 选择符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call TSS|任务门 选择符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段内转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  与实模式一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段间直接转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  jmp 代码段描述符:偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  call 代码段描述符:偏移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jmp 调用门 选择符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>call 调用门 选择符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致代码段，CPL&gt;=DPL,RPL不检查，跳转前后CPL一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非一致代码段，CPL=DPL,RPL&lt;=DPL，跳转前后CPL一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ret n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  ret n</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同jmp，但跳转之前需要 复制参数，push cs|eip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPL=CPL，pop eip, pop cs，跳过参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/geason/p/5774088.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086PC 机可以表示 256 种中断信息源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保护模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ault</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>rap</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interrupt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终止</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外部中断或 int 指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可被更正的异常，异常处理程序的返回地址是产生 fault 的指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即被报告的异常，异常处理程序的返回地址是产生 trap 的指令的下条指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不总是报告精确异常发生位置的异常，它不允许程序或任务继续执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ0 时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ5 LPT2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ4 串口1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ3 串口2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ1 键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ6 软盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ7 LPT1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-------</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ8 实时时钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ9 重定向 IRQ2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RQ10 保留</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ11 保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ12 PS/2 鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ13 FPU 异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ14 AT 温盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IRQ15 保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;---------</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  INTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-------&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>MI</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非屏蔽中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIOS初始化时，IRQ0~IRQ7已被初始化为08h~0Fh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8259A可编程中断控制器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主8259A对应的端口地址是20h和21h，从则是A0h和A1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 往 20h(主片) 或 A0h(从片) 写入 ICW1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 往 21h(主片) 或 A1h(从片) 写入 ICW2。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 往 21h(主片) 或 A1h(从片) 写入 ICW3。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 往 21h(主片) 或 A1h(从片) 写入 ICW4。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化过程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CW1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=level triggered模式,0=edge triggered模式</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=4字节中断向量，0=8字节中断向量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=单个8259，0=级联8259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=需要ICW4，0=不需要ICW4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CW2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000:80x86系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0x86中断向量</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0h,A0h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21h,A1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR7级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR6级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR5级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR4级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR3级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR2级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR1级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=IR0级联从片,0=无从片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主片ICW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从片ICW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必须为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从片连的主片的IR号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21h,A1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICW4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=SFNM模式,0=sequential模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主/从缓冲模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=自动EOI,0=正常EOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=80x86模式,0=MCS 80/85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCW1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>=IRQ7打开,1=关闭</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ6打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ5打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ4打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ3打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ2打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ1打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0=IRQ0打开,1=关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,011h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ut 020h,al</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ut 0A0h,al</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,020h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ut 021h,al</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 021h,al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,ICW1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从，ICW1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RQ0对应中断向量 0x20</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主,ICW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,028h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ut 0A1h,al</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 0A1h,al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,004h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,002h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,001h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>RQ8 对应中断向量 0x28</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主,ICW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R2 对应从8259</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从,ICW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从,ICW3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>主8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>259，ICW4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从,ICW4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,11111110b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;mov al,11111111b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 021h, al</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅开启定时器中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽主8259所有中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主8259, OCW1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al, 11111111b</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>et</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>屏蔽从8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>259所有中断</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>从8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>259，OCW1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IR2 对应主8259</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏蔽或打开外部中断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OCW2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EOI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>L</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通知8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>259A中断处理结束</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ov al,20h</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ut 20h或A0h,al</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未使用，为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ximage 用于创建软盘、硬盘</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ochs 下载网址：https://sourceforge.net/projects/bochs/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>d if=boot.bin of=a.img bs=512 count=1 conv=notrunc</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面指令用于将 boot.bin 写入 a.img 的第一个扇区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置软盘a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floppya: 1_44=floppya.img, status=inserted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boot: a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置启动盘为软盘 floppya.img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置文件 bochsrc.bxrc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>段间间接转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A20地址线</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>8086PC只能访问1M内存，如果试图访问超过1M的地址就会回卷。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>到了80286为了兼容，就会默认关闭第20根(从0开始)地址总线。</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>in al, 92h</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>or al, 00000010b</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>out 92h, al</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>and al, 11111101b</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验方案搭建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>floppya: 1_44=freedos.img, status=inserted</t>
+  </si>
+  <si>
+    <t>sudo umount /mnt/floppy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nasm test.asm -o test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>floppyb: 1_44=floppyb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+      </rPr>
+      <t>.img, status=inserted</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 启动盘设置为 freedos，floppyb.img 用于存储实验文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 test.asm 中设置起始地址：org 0100，编译成 test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3 复制 test.com 到 floppyb.img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4 到 freedos 中执行命令：B:\test.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo mount -o loop floppyb.img /mnt/floppy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sudo cp test.com /mnt/floppy/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPL&lt;=门DPL，CPL&lt;=门DPL，之后RPL被清0，不检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPL&lt;=门DPL，CPL&lt;=门DPL，之后RPL被清0，不检查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致代码段，CPL&gt;=DPL，跳转前后CPL一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非一致代码段，CPL=DPL，跳转前后CPL一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一致代码段，CPL&gt;=DPL，跳转前后CPL一致，跳转前 push cs, push eip，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非一致代码段，CPL&gt;=DPL，跳转后CPL变成DPL，需要切换堆栈，跳转前 push ss|esp,复制参数，push cs|eip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPL=CPL，pop eip|cs,跳过参数, pop esp|ss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="20">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -3031,6 +4252,22 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3288,10 +4525,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3352,6 +4593,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3370,6 +4621,24 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3397,23 +4666,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -3424,107 +4693,29 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3542,28 +4733,148 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3575,36 +4886,21 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3629,12 +4925,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3665,54 +4955,34 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -5672,7 +6942,7 @@
   <dimension ref="B2:AT34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AP18" sqref="AP18"/>
+      <selection activeCell="AX25" sqref="AX25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5681,111 +6951,111 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:46">
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="38"/>
+      <c r="S2" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="38"/>
+    </row>
+    <row r="3" spans="2:46">
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="41"/>
+    </row>
+    <row r="4" spans="2:46">
+      <c r="AC4" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="37"/>
+      <c r="AI4" s="38"/>
+    </row>
+    <row r="5" spans="2:46" ht="14.25" customHeight="1">
+      <c r="B5" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="32"/>
-      <c r="S2" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="32"/>
-    </row>
-    <row r="3" spans="2:46">
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="35"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="35"/>
-    </row>
-    <row r="4" spans="2:46">
-      <c r="AC4" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="32"/>
-    </row>
-    <row r="5" spans="2:46" ht="14.25" customHeight="1">
-      <c r="B5" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="I5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="32"/>
-      <c r="S5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="32"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="37"/>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="I5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+      <c r="S5" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="38"/>
+      <c r="AC5" s="48"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="49"/>
+      <c r="AF5" s="49"/>
+      <c r="AG5" s="49"/>
+      <c r="AH5" s="49"/>
+      <c r="AI5" s="50"/>
     </row>
     <row r="6" spans="2:46">
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="35"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="34"/>
-      <c r="U6" s="34"/>
-      <c r="V6" s="34"/>
-      <c r="W6" s="34"/>
-      <c r="X6" s="34"/>
-      <c r="Y6" s="35"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="40"/>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AG6" s="40"/>
-      <c r="AH6" s="40"/>
-      <c r="AI6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="40"/>
+      <c r="N6" s="40"/>
+      <c r="O6" s="41"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="40"/>
+      <c r="V6" s="40"/>
+      <c r="W6" s="40"/>
+      <c r="X6" s="40"/>
+      <c r="Y6" s="41"/>
+      <c r="AC6" s="51"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="52"/>
+      <c r="AF6" s="52"/>
+      <c r="AG6" s="52"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="53"/>
     </row>
     <row r="7" spans="2:46">
       <c r="I7" s="19"/>
@@ -5802,49 +7072,49 @@
       <c r="W7" s="20"/>
       <c r="X7" s="20"/>
       <c r="Y7" s="21"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="43"/>
-      <c r="AE7" s="43"/>
-      <c r="AF7" s="43"/>
-      <c r="AG7" s="43"/>
-      <c r="AH7" s="43"/>
-      <c r="AI7" s="44"/>
+      <c r="AC7" s="54"/>
+      <c r="AD7" s="55"/>
+      <c r="AE7" s="55"/>
+      <c r="AF7" s="55"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="55"/>
+      <c r="AI7" s="56"/>
     </row>
     <row r="8" spans="2:46" ht="14.25" customHeight="1">
-      <c r="I8" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="32"/>
-      <c r="S8" s="30" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="32"/>
+      <c r="I8" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="38"/>
+      <c r="S8" s="36" t="s">
+        <v>112</v>
+      </c>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="38"/>
     </row>
     <row r="9" spans="2:46">
-      <c r="I9" s="33"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="35"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="34"/>
-      <c r="U9" s="34"/>
-      <c r="V9" s="34"/>
-      <c r="W9" s="34"/>
-      <c r="X9" s="34"/>
-      <c r="Y9" s="35"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
+      <c r="N9" s="40"/>
+      <c r="O9" s="41"/>
+      <c r="S9" s="39"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="40"/>
+      <c r="V9" s="40"/>
+      <c r="W9" s="40"/>
+      <c r="X9" s="40"/>
+      <c r="Y9" s="41"/>
     </row>
     <row r="10" spans="2:46">
       <c r="I10" s="19"/>
@@ -5861,80 +7131,80 @@
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="21"/>
-      <c r="AC10" s="30" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="32"/>
+      <c r="AC10" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="38"/>
     </row>
     <row r="11" spans="2:46" ht="14.25" customHeight="1">
-      <c r="B11" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="I11" s="30" t="s">
+      <c r="B11" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="I11" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="38"/>
+      <c r="S11" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="32"/>
-      <c r="S11" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="32"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="38"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="38"/>
+      <c r="AC11" s="48"/>
+      <c r="AD11" s="49"/>
+      <c r="AE11" s="49"/>
+      <c r="AF11" s="49"/>
+      <c r="AG11" s="49"/>
+      <c r="AH11" s="49"/>
+      <c r="AI11" s="50"/>
     </row>
     <row r="12" spans="2:46">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="35"/>
-      <c r="S12" s="33"/>
-      <c r="T12" s="34"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="34"/>
-      <c r="W12" s="34"/>
-      <c r="X12" s="34"/>
-      <c r="Y12" s="35"/>
-      <c r="AC12" s="39"/>
-      <c r="AD12" s="40"/>
-      <c r="AE12" s="40"/>
-      <c r="AF12" s="40"/>
-      <c r="AG12" s="40"/>
-      <c r="AH12" s="40"/>
-      <c r="AI12" s="41"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="41"/>
+      <c r="S12" s="39"/>
+      <c r="T12" s="40"/>
+      <c r="U12" s="40"/>
+      <c r="V12" s="40"/>
+      <c r="W12" s="40"/>
+      <c r="X12" s="40"/>
+      <c r="Y12" s="41"/>
+      <c r="AC12" s="51"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="53"/>
       <c r="AS12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AT12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="2:46">
@@ -5952,65 +7222,65 @@
       <c r="W13" s="20"/>
       <c r="X13" s="20"/>
       <c r="Y13" s="21"/>
-      <c r="AC13" s="42"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="43"/>
-      <c r="AF13" s="43"/>
-      <c r="AG13" s="43"/>
-      <c r="AH13" s="43"/>
-      <c r="AI13" s="44"/>
+      <c r="AC13" s="54"/>
+      <c r="AD13" s="55"/>
+      <c r="AE13" s="55"/>
+      <c r="AF13" s="55"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="55"/>
+      <c r="AI13" s="56"/>
       <c r="AS13" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT13" t="s">
         <v>127</v>
       </c>
-      <c r="AT13" t="s">
-        <v>128</v>
-      </c>
     </row>
     <row r="14" spans="2:46">
-      <c r="B14" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="47"/>
-      <c r="I14" s="30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="32"/>
-      <c r="S14" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="32"/>
+      <c r="B14" s="42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="44"/>
+      <c r="I14" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="38"/>
+      <c r="S14" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="38"/>
     </row>
     <row r="15" spans="2:46">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="50"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="35"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="34"/>
-      <c r="W15" s="34"/>
-      <c r="X15" s="34"/>
-      <c r="Y15" s="35"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="40"/>
+      <c r="L15" s="40"/>
+      <c r="M15" s="40"/>
+      <c r="N15" s="40"/>
+      <c r="O15" s="41"/>
+      <c r="S15" s="39"/>
+      <c r="T15" s="40"/>
+      <c r="U15" s="40"/>
+      <c r="V15" s="40"/>
+      <c r="W15" s="40"/>
+      <c r="X15" s="40"/>
+      <c r="Y15" s="41"/>
     </row>
     <row r="16" spans="2:46">
       <c r="I16" s="19"/>
@@ -6027,108 +7297,108 @@
       <c r="X16" s="13"/>
     </row>
     <row r="17" spans="2:25" ht="14.25" customHeight="1">
-      <c r="I17" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="32"/>
+      <c r="I17" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="38"/>
     </row>
     <row r="18" spans="2:25">
-      <c r="I18" s="33"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="35"/>
-      <c r="S18" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="32"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="40"/>
+      <c r="O18" s="41"/>
+      <c r="S18" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="38"/>
     </row>
     <row r="19" spans="2:25">
-      <c r="S19" s="36"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="38"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="49"/>
+      <c r="U19" s="49"/>
+      <c r="V19" s="49"/>
+      <c r="W19" s="49"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
     </row>
     <row r="20" spans="2:25" ht="14.25" customHeight="1">
-      <c r="S20" s="39"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="40"/>
-      <c r="W20" s="40"/>
-      <c r="X20" s="40"/>
-      <c r="Y20" s="41"/>
+      <c r="S20" s="51"/>
+      <c r="T20" s="52"/>
+      <c r="U20" s="52"/>
+      <c r="V20" s="52"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="53"/>
     </row>
     <row r="21" spans="2:25">
-      <c r="I21" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="32"/>
-      <c r="S21" s="42"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="43"/>
-      <c r="Y21" s="44"/>
+      <c r="I21" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="38"/>
+      <c r="S21" s="54"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
+      <c r="V21" s="55"/>
+      <c r="W21" s="55"/>
+      <c r="X21" s="55"/>
+      <c r="Y21" s="56"/>
     </row>
     <row r="22" spans="2:25">
-      <c r="I22" s="33"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="35"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="41"/>
     </row>
     <row r="24" spans="2:25">
-      <c r="B24" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="I24" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="32"/>
+      <c r="B24" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="I24" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="38"/>
     </row>
     <row r="25" spans="2:25">
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="35"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40"/>
+      <c r="L25" s="40"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="40"/>
+      <c r="O25" s="41"/>
     </row>
     <row r="26" spans="2:25">
       <c r="I26" s="19"/>
@@ -6140,42 +7410,42 @@
       <c r="O26" s="21"/>
     </row>
     <row r="27" spans="2:25" ht="14.25" customHeight="1">
-      <c r="I27" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="32"/>
-      <c r="S27" s="30" t="s">
+      <c r="I27" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="37"/>
+      <c r="N27" s="37"/>
+      <c r="O27" s="38"/>
+      <c r="S27" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="T27" s="31"/>
-      <c r="U27" s="31"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="X27" s="46"/>
-      <c r="Y27" s="47"/>
+      <c r="T27" s="37"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="38"/>
+      <c r="W27" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="X27" s="43"/>
+      <c r="Y27" s="44"/>
     </row>
     <row r="28" spans="2:25">
-      <c r="I28" s="33"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="35"/>
-      <c r="S28" s="33"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="49"/>
-      <c r="Y28" s="50"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="41"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="45"/>
+      <c r="X28" s="46"/>
+      <c r="Y28" s="47"/>
     </row>
     <row r="29" spans="2:25">
       <c r="I29" s="19"/>
@@ -6187,24 +7457,24 @@
       <c r="O29" s="21"/>
     </row>
     <row r="30" spans="2:25">
-      <c r="I30" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="32"/>
+      <c r="I30" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="J30" s="37"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="38"/>
     </row>
     <row r="31" spans="2:25">
-      <c r="I31" s="33"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="35"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="40"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="41"/>
     </row>
     <row r="32" spans="2:25">
       <c r="I32" s="19"/>
@@ -6216,27 +7486,37 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="9:15">
-      <c r="I33" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="32"/>
+      <c r="I33" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="37"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="9:15">
-      <c r="I34" s="33"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="34"/>
-      <c r="O34" s="35"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40"/>
+      <c r="L34" s="40"/>
+      <c r="M34" s="40"/>
+      <c r="N34" s="40"/>
+      <c r="O34" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="I30:O31"/>
+    <mergeCell ref="S18:Y21"/>
+    <mergeCell ref="AC10:AI13"/>
+    <mergeCell ref="AC4:AI7"/>
+    <mergeCell ref="I33:O34"/>
+    <mergeCell ref="I14:O15"/>
+    <mergeCell ref="I17:O18"/>
+    <mergeCell ref="I21:O22"/>
+    <mergeCell ref="I24:O25"/>
+    <mergeCell ref="I27:O28"/>
     <mergeCell ref="I2:O3"/>
     <mergeCell ref="S27:V28"/>
     <mergeCell ref="W27:Y28"/>
@@ -6252,16 +7532,6 @@
     <mergeCell ref="S14:Y15"/>
     <mergeCell ref="B24:E25"/>
     <mergeCell ref="B14:E15"/>
-    <mergeCell ref="I30:O31"/>
-    <mergeCell ref="S18:Y21"/>
-    <mergeCell ref="AC10:AI13"/>
-    <mergeCell ref="AC4:AI7"/>
-    <mergeCell ref="I33:O34"/>
-    <mergeCell ref="I14:O15"/>
-    <mergeCell ref="I17:O18"/>
-    <mergeCell ref="I21:O22"/>
-    <mergeCell ref="I24:O25"/>
-    <mergeCell ref="I27:O28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6276,7 +7546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -6284,113 +7554,311 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="24" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>355</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>356</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="24" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="B11" s="24" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="B12" s="24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="13" spans="2:4">
       <c r="B13" s="24" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="2:4">
       <c r="B15" s="24" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="2:7">
       <c r="B17" s="26" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="2:7">
       <c r="B19" s="24" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="2:7">
       <c r="B20" s="24" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="24" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="24" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="2:7">
       <c r="B25" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="E25" s="24" t="s">
         <v>370</v>
       </c>
-      <c r="C25" s="24" t="s">
-        <v>371</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="F25" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="G25" s="24" t="s">
         <v>373</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>372</v>
-      </c>
-      <c r="F25" s="24" t="s">
-        <v>374</v>
-      </c>
-      <c r="G25" s="24" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="27" spans="2:7">
       <c r="B27" s="24" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="24" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="24" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="24" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="24" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="26" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="24" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="24"/>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="24" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="24" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="24" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="24" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="24" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="24" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="24"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="24" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="24" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="24" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="24" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="24" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="24" t="s">
+        <v>560</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D8" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" t="s">
+        <v>546</v>
+      </c>
+      <c r="D12" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" t="s">
+        <v>548</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="21" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6400,8 +7868,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AM44"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AM15" sqref="AM15"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="AI37" sqref="AI37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6410,407 +7878,407 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:34">
-      <c r="B1" s="76" t="s">
+      <c r="B1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76" t="s">
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76" t="s">
+      <c r="G1" s="89"/>
+      <c r="H1" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="76"/>
+      <c r="I1" s="89"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
-      <c r="M1" s="76" t="s">
+      <c r="M1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="T1" s="76" t="s">
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="T1" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76" t="s">
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
     </row>
     <row r="2" spans="2:34">
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="62" t="s">
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="54" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="K2" s="55"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="54" t="s">
+      <c r="K2" s="98"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="55"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="84"/>
-      <c r="V2" s="84"/>
-      <c r="W2" s="84"/>
-      <c r="X2" s="85" t="s">
+      <c r="R2" s="98"/>
+      <c r="T2" s="91"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="93" t="s">
         <v>36</v>
       </c>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="85"/>
-      <c r="AA2" s="86"/>
-      <c r="AB2" s="82" t="s">
+      <c r="Y2" s="93"/>
+      <c r="Z2" s="93"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="AC2" s="83"/>
+      <c r="AC2" s="88"/>
     </row>
     <row r="3" spans="2:34">
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68" t="s">
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="74" t="s">
+      <c r="G3" s="104"/>
+      <c r="H3" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="55"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="84"/>
-      <c r="V3" s="84"/>
-      <c r="W3" s="84"/>
-      <c r="X3" s="85"/>
-      <c r="Y3" s="85"/>
-      <c r="Z3" s="85"/>
-      <c r="AA3" s="86"/>
-      <c r="AB3" s="82"/>
-      <c r="AC3" s="83"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="96"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="98"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="92"/>
+      <c r="V3" s="92"/>
+      <c r="W3" s="92"/>
+      <c r="X3" s="93"/>
+      <c r="Y3" s="93"/>
+      <c r="Z3" s="93"/>
+      <c r="AA3" s="94"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="88"/>
     </row>
     <row r="4" spans="2:34">
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="62" t="s">
+      <c r="B4" s="100"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="54" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="K4" s="55"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="54" t="s">
+      <c r="K4" s="98"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="97" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="55"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="84"/>
-      <c r="V4" s="84"/>
-      <c r="W4" s="84"/>
-      <c r="X4" s="85" t="s">
+      <c r="R4" s="98"/>
+      <c r="T4" s="91"/>
+      <c r="U4" s="92"/>
+      <c r="V4" s="92"/>
+      <c r="W4" s="92"/>
+      <c r="X4" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="86"/>
-      <c r="AB4" s="82" t="s">
+      <c r="Y4" s="93"/>
+      <c r="Z4" s="93"/>
+      <c r="AA4" s="94"/>
+      <c r="AB4" s="87" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="83"/>
+      <c r="AC4" s="88"/>
     </row>
     <row r="5" spans="2:34">
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="68" t="s">
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="69"/>
-      <c r="H5" s="74" t="s">
+      <c r="G5" s="104"/>
+      <c r="H5" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="69"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="55"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="55"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="83"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="98"/>
+      <c r="M5" s="96"/>
+      <c r="N5" s="96"/>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="98"/>
+      <c r="T5" s="91"/>
+      <c r="U5" s="92"/>
+      <c r="V5" s="92"/>
+      <c r="W5" s="92"/>
+      <c r="X5" s="93"/>
+      <c r="Y5" s="93"/>
+      <c r="Z5" s="93"/>
+      <c r="AA5" s="94"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="88"/>
     </row>
     <row r="6" spans="2:34">
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="62" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="91"/>
+      <c r="F6" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="54" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="54" t="s">
+      <c r="K6" s="98"/>
+      <c r="M6" s="96"/>
+      <c r="N6" s="96"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="97" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="55"/>
-      <c r="T6" s="87" t="s">
-        <v>138</v>
-      </c>
-      <c r="U6" s="75"/>
-      <c r="V6" s="75"/>
-      <c r="W6" s="75"/>
-      <c r="X6" s="75"/>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="75"/>
-      <c r="AA6" s="75"/>
+      <c r="R6" s="98"/>
+      <c r="T6" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="U6" s="90"/>
+      <c r="V6" s="90"/>
+      <c r="W6" s="90"/>
+      <c r="X6" s="90"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
     </row>
     <row r="7" spans="2:34">
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="68" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="69"/>
-      <c r="H7" s="74" t="s">
+      <c r="G7" s="104"/>
+      <c r="H7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="69"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="55"/>
+      <c r="I7" s="104"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="98"/>
+      <c r="M7" s="96"/>
+      <c r="N7" s="96"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="98"/>
     </row>
     <row r="8" spans="2:34">
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="62" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
-      <c r="I8" s="63"/>
-      <c r="J8" s="54" t="s">
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="55"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="54" t="s">
+      <c r="K8" s="98"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="96"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="97" t="s">
         <v>31</v>
       </c>
-      <c r="R8" s="55"/>
+      <c r="R8" s="98"/>
     </row>
     <row r="9" spans="2:34">
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="67"/>
-      <c r="F9" s="71" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73" t="s">
+      <c r="G9" s="106"/>
+      <c r="H9" s="107" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="72"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="55"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="55"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="98"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="96"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
     </row>
     <row r="10" spans="2:34">
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="62" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="91"/>
+      <c r="F10" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63"/>
-      <c r="J10" s="54" t="s">
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="55"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="54" t="s">
+      <c r="K10" s="98"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="96"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="55"/>
+      <c r="R10" s="98"/>
     </row>
     <row r="11" spans="2:34">
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="55"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="55"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="91"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="98"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
     </row>
     <row r="12" spans="2:34">
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="62" t="s">
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="91"/>
+      <c r="F12" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="54" t="s">
+      <c r="G12" s="67"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="55"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="54" t="s">
+      <c r="K12" s="98"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="96"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97" t="s">
         <v>33</v>
       </c>
-      <c r="R12" s="55"/>
+      <c r="R12" s="98"/>
     </row>
     <row r="13" spans="2:34">
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="55"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="55"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="98"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="96"/>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
     </row>
     <row r="14" spans="2:34">
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="62" t="s">
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="54" t="s">
+      <c r="G14" s="67"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="55"/>
-      <c r="M14" s="75" t="s">
+      <c r="K14" s="98"/>
+      <c r="M14" s="90" t="s">
         <v>34</v>
       </c>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="N14" s="90"/>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
       <c r="S14" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="T14" s="22" t="s">
         <v>140</v>
       </c>
-      <c r="T14" s="22" t="s">
+      <c r="U14" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="U14" s="22" t="s">
+      <c r="V14" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="V14" s="22" t="s">
+      <c r="W14" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="W14" s="22" t="s">
+      <c r="X14" s="22" t="s">
         <v>144</v>
-      </c>
-      <c r="X14" s="22" t="s">
-        <v>145</v>
       </c>
       <c r="Y14" s="22">
         <v>9</v>
@@ -6844,108 +8312,108 @@
       </c>
     </row>
     <row r="15" spans="2:34">
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="55"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="98"/>
       <c r="S15" s="23"/>
       <c r="T15" s="23"/>
       <c r="U15" s="23"/>
       <c r="V15" s="23"/>
       <c r="W15" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="X15" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y15" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Z15" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AA15" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB15" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC15" s="23"/>
       <c r="AD15" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AE15" s="23"/>
       <c r="AF15" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AG15" s="23"/>
       <c r="AH15" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="2:34">
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="62" t="s">
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="91"/>
+      <c r="F16" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="54" t="s">
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="S16" s="77" t="s">
-        <v>139</v>
-      </c>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
-      <c r="V16" s="77"/>
-      <c r="W16" s="77"/>
-      <c r="X16" s="77"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="77"/>
-      <c r="AB16" s="77"/>
-      <c r="AC16" s="77"/>
-      <c r="AD16" s="77"/>
-      <c r="AE16" s="77"/>
-      <c r="AF16" s="77"/>
-      <c r="AG16" s="77"/>
-      <c r="AH16" s="77"/>
+      <c r="K16" s="98"/>
+      <c r="S16" s="99" t="s">
+        <v>138</v>
+      </c>
+      <c r="T16" s="99"/>
+      <c r="U16" s="99"/>
+      <c r="V16" s="99"/>
+      <c r="W16" s="99"/>
+      <c r="X16" s="99"/>
+      <c r="Y16" s="99"/>
+      <c r="Z16" s="99"/>
+      <c r="AA16" s="99"/>
+      <c r="AB16" s="99"/>
+      <c r="AC16" s="99"/>
+      <c r="AD16" s="99"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="99"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
     </row>
     <row r="17" spans="1:34">
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="55"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="98"/>
     </row>
     <row r="18" spans="1:34">
-      <c r="B18" s="75" t="s">
+      <c r="B18" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
     </row>
     <row r="19" spans="1:34">
       <c r="C19" s="1">
@@ -6998,530 +8466,530 @@
       </c>
     </row>
     <row r="20" spans="1:34">
-      <c r="A20" s="51" t="s">
+      <c r="A20" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="52"/>
-      <c r="C20" s="80" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="78">
+      <c r="D20" s="57">
         <v>0</v>
       </c>
-      <c r="E20" s="78">
+      <c r="E20" s="57">
         <v>0</v>
       </c>
-      <c r="F20" s="78">
+      <c r="F20" s="57">
         <v>0</v>
       </c>
-      <c r="G20" s="78">
+      <c r="G20" s="57">
         <v>0</v>
       </c>
-      <c r="H20" s="78">
+      <c r="H20" s="57">
         <v>0</v>
       </c>
-      <c r="I20" s="78">
+      <c r="I20" s="57">
         <v>0</v>
       </c>
-      <c r="J20" s="78">
+      <c r="J20" s="57">
         <v>0</v>
       </c>
-      <c r="K20" s="78">
+      <c r="K20" s="57">
         <v>0</v>
       </c>
-      <c r="L20" s="78">
+      <c r="L20" s="57">
         <v>0</v>
       </c>
-      <c r="M20" s="78">
+      <c r="M20" s="57">
         <v>0</v>
       </c>
-      <c r="N20" s="78">
+      <c r="N20" s="57">
         <v>0</v>
       </c>
-      <c r="O20" s="78">
+      <c r="O20" s="57">
         <v>0</v>
       </c>
-      <c r="P20" s="78">
+      <c r="P20" s="57">
         <v>0</v>
       </c>
-      <c r="Q20" s="78">
+      <c r="Q20" s="57">
         <v>0</v>
       </c>
-      <c r="R20" s="78">
+      <c r="R20" s="57">
         <v>0</v>
       </c>
-      <c r="S20" s="80">
+      <c r="S20" s="59">
         <v>0</v>
       </c>
-      <c r="T20" s="78">
+      <c r="T20" s="57">
         <v>0</v>
       </c>
-      <c r="U20" s="78">
+      <c r="U20" s="57">
         <v>0</v>
       </c>
-      <c r="V20" s="78">
+      <c r="V20" s="57">
         <v>0</v>
       </c>
-      <c r="W20" s="78">
+      <c r="W20" s="57">
         <v>0</v>
       </c>
-      <c r="X20" s="78">
+      <c r="X20" s="57">
         <v>0</v>
       </c>
-      <c r="Y20" s="78">
+      <c r="Y20" s="57">
         <v>0</v>
       </c>
-      <c r="Z20" s="78">
+      <c r="Z20" s="57">
         <v>0</v>
       </c>
-      <c r="AA20" s="78">
+      <c r="AA20" s="57">
         <v>0</v>
       </c>
-      <c r="AB20" s="78">
+      <c r="AB20" s="57">
         <v>0</v>
       </c>
-      <c r="AC20" s="78">
+      <c r="AC20" s="57">
         <v>0</v>
       </c>
-      <c r="AD20" s="78" t="s">
+      <c r="AD20" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AE20" s="78" t="s">
+      <c r="AE20" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AF20" s="78" t="s">
+      <c r="AF20" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="AG20" s="78" t="s">
+      <c r="AG20" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="AH20" s="100" t="s">
+      <c r="AH20" s="61" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:34">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="81"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="79"/>
-      <c r="AE21" s="79"/>
-      <c r="AF21" s="79"/>
-      <c r="AG21" s="79"/>
-      <c r="AH21" s="101"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="58"/>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="58"/>
+      <c r="P21" s="58"/>
+      <c r="Q21" s="58"/>
+      <c r="R21" s="58"/>
+      <c r="S21" s="60"/>
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="58"/>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="58"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="58"/>
+      <c r="AE21" s="58"/>
+      <c r="AF21" s="58"/>
+      <c r="AG21" s="58"/>
+      <c r="AH21" s="62"/>
     </row>
     <row r="22" spans="1:34">
-      <c r="A22" s="51" t="s">
+      <c r="A22" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="53" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="53"/>
-      <c r="T22" s="53"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="53"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="65"/>
+      <c r="X22" s="65"/>
+      <c r="Y22" s="65"/>
+      <c r="Z22" s="65"/>
+      <c r="AA22" s="65"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="65"/>
+      <c r="AG22" s="65"/>
+      <c r="AH22" s="65"/>
     </row>
     <row r="23" spans="1:34">
-      <c r="A23" s="51"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="53"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="53"/>
-      <c r="L23" s="53"/>
-      <c r="M23" s="53"/>
-      <c r="N23" s="53"/>
-      <c r="O23" s="53"/>
-      <c r="P23" s="53"/>
-      <c r="Q23" s="53"/>
-      <c r="R23" s="53"/>
-      <c r="S23" s="53"/>
-      <c r="T23" s="53"/>
-      <c r="U23" s="53"/>
-      <c r="V23" s="53"/>
-      <c r="W23" s="53"/>
-      <c r="X23" s="53"/>
-      <c r="Y23" s="53"/>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="53"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="53"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="65"/>
+      <c r="X23" s="65"/>
+      <c r="Y23" s="65"/>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="65"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="65"/>
+      <c r="AG23" s="65"/>
+      <c r="AH23" s="65"/>
     </row>
     <row r="24" spans="1:34">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="53"/>
-      <c r="O24" s="53"/>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="53"/>
-      <c r="AC24" s="53"/>
-      <c r="AD24" s="53"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="65"/>
+      <c r="X24" s="65"/>
+      <c r="Y24" s="65"/>
+      <c r="Z24" s="65"/>
+      <c r="AA24" s="65"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="65"/>
+      <c r="AG24" s="65"/>
+      <c r="AH24" s="65"/>
     </row>
     <row r="25" spans="1:34">
-      <c r="A25" s="51"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="53"/>
-      <c r="M25" s="53"/>
-      <c r="N25" s="53"/>
-      <c r="O25" s="53"/>
-      <c r="P25" s="53"/>
-      <c r="Q25" s="53"/>
-      <c r="R25" s="53"/>
-      <c r="S25" s="53"/>
-      <c r="T25" s="53"/>
-      <c r="U25" s="53"/>
-      <c r="V25" s="53"/>
-      <c r="W25" s="53"/>
-      <c r="X25" s="53"/>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="53"/>
-      <c r="AC25" s="53"/>
-      <c r="AD25" s="53"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="65"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="65"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
     </row>
     <row r="26" spans="1:34">
-      <c r="A26" s="51" t="s">
+      <c r="A26" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="80" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="91"/>
-      <c r="W26" s="78">
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="76"/>
+      <c r="Q26" s="76"/>
+      <c r="R26" s="76"/>
+      <c r="S26" s="76"/>
+      <c r="T26" s="76"/>
+      <c r="U26" s="76"/>
+      <c r="V26" s="77"/>
+      <c r="W26" s="57">
         <v>0</v>
       </c>
-      <c r="X26" s="78">
+      <c r="X26" s="57">
         <v>0</v>
       </c>
-      <c r="Y26" s="78">
+      <c r="Y26" s="57">
         <v>0</v>
       </c>
-      <c r="Z26" s="78">
+      <c r="Z26" s="57">
         <v>0</v>
       </c>
-      <c r="AA26" s="78">
+      <c r="AA26" s="57">
         <v>0</v>
       </c>
-      <c r="AB26" s="78">
+      <c r="AB26" s="57">
         <v>0</v>
       </c>
-      <c r="AC26" s="78">
+      <c r="AC26" s="57">
         <v>0</v>
       </c>
-      <c r="AD26" s="78">
+      <c r="AD26" s="57">
         <v>0</v>
       </c>
-      <c r="AE26" s="78">
+      <c r="AE26" s="57">
         <v>0</v>
       </c>
-      <c r="AF26" s="78">
+      <c r="AF26" s="57">
         <v>0</v>
       </c>
-      <c r="AG26" s="78">
+      <c r="AG26" s="57">
         <v>0</v>
       </c>
-      <c r="AH26" s="100">
+      <c r="AH26" s="61">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:34">
-      <c r="A27" s="51"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="92"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="92"/>
-      <c r="J27" s="92"/>
-      <c r="K27" s="92"/>
-      <c r="L27" s="92"/>
-      <c r="M27" s="92"/>
-      <c r="N27" s="92"/>
-      <c r="O27" s="92"/>
-      <c r="P27" s="92"/>
-      <c r="Q27" s="92"/>
-      <c r="R27" s="92"/>
-      <c r="S27" s="92"/>
-      <c r="T27" s="92"/>
-      <c r="U27" s="92"/>
-      <c r="V27" s="93"/>
-      <c r="W27" s="79"/>
-      <c r="X27" s="79"/>
-      <c r="Y27" s="79"/>
-      <c r="Z27" s="79"/>
-      <c r="AA27" s="79"/>
-      <c r="AB27" s="79"/>
-      <c r="AC27" s="79"/>
-      <c r="AD27" s="79"/>
-      <c r="AE27" s="79"/>
-      <c r="AF27" s="79"/>
-      <c r="AG27" s="79"/>
-      <c r="AH27" s="101"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
+      <c r="I27" s="78"/>
+      <c r="J27" s="78"/>
+      <c r="K27" s="78"/>
+      <c r="L27" s="78"/>
+      <c r="M27" s="78"/>
+      <c r="N27" s="78"/>
+      <c r="O27" s="78"/>
+      <c r="P27" s="78"/>
+      <c r="Q27" s="78"/>
+      <c r="R27" s="78"/>
+      <c r="S27" s="78"/>
+      <c r="T27" s="78"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="79"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="58"/>
+      <c r="Z27" s="58"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="58"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="58"/>
+      <c r="AE27" s="58"/>
+      <c r="AF27" s="58"/>
+      <c r="AG27" s="58"/>
+      <c r="AH27" s="62"/>
     </row>
     <row r="28" spans="1:34">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="D28" s="99"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="99"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="99"/>
-      <c r="P28" s="99"/>
-      <c r="Q28" s="99"/>
-      <c r="R28" s="99"/>
-      <c r="S28" s="99"/>
-      <c r="T28" s="99"/>
-      <c r="U28" s="99"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="99"/>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="99"/>
-      <c r="Z28" s="99"/>
-      <c r="AA28" s="99"/>
-      <c r="AB28" s="99"/>
-      <c r="AC28" s="99"/>
-      <c r="AD28" s="99"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="99"/>
-      <c r="AG28" s="99"/>
-      <c r="AH28" s="99"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="86"/>
+      <c r="AC28" s="86"/>
+      <c r="AD28" s="86"/>
+      <c r="AE28" s="86"/>
+      <c r="AF28" s="86"/>
+      <c r="AG28" s="86"/>
+      <c r="AH28" s="86"/>
     </row>
     <row r="29" spans="1:34">
       <c r="C29" s="1">
         <v>31</v>
       </c>
-      <c r="D29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="89"/>
-      <c r="I29" s="89"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
       <c r="J29" s="1">
         <v>0</v>
       </c>
       <c r="K29" s="1">
         <v>15</v>
       </c>
-      <c r="L29" s="89"/>
-      <c r="M29" s="89"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
       <c r="N29" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="52"/>
-      <c r="C30" s="94" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="53" t="s">
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="68"/>
+      <c r="I30" s="68"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="53"/>
-      <c r="M30" s="53"/>
-      <c r="N30" s="53"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
     </row>
     <row r="31" spans="1:34">
-      <c r="A31" s="51"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="74"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="68"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="53"/>
-      <c r="L31" s="53"/>
-      <c r="M31" s="53"/>
-      <c r="N31" s="53"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="71"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="72"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
     </row>
     <row r="32" spans="1:34">
-      <c r="A32" s="51" t="s">
+      <c r="A32" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="B32" s="52"/>
-      <c r="C32" s="94" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="95"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="53" t="s">
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="68"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="L32" s="53"/>
-      <c r="M32" s="53"/>
-      <c r="N32" s="53"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
     </row>
     <row r="33" spans="1:39">
-      <c r="A33" s="51"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="68"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="97"/>
-      <c r="J33" s="98"/>
-      <c r="K33" s="53"/>
-      <c r="L33" s="53"/>
-      <c r="M33" s="53"/>
-      <c r="N33" s="53"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="71"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="72"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
     </row>
     <row r="35" spans="1:39">
       <c r="C35" s="1">
@@ -7566,160 +9034,160 @@
       </c>
     </row>
     <row r="36" spans="1:39">
-      <c r="A36" s="51" t="s">
+      <c r="A36" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="52"/>
-      <c r="C36" s="53" t="s">
+      <c r="B36" s="64"/>
+      <c r="C36" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="H36" s="94" t="s">
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="65"/>
+      <c r="H36" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="95"/>
-      <c r="M36" s="95"/>
-      <c r="N36" s="95"/>
-      <c r="O36" s="96"/>
-      <c r="P36" s="94" t="s">
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="69"/>
+      <c r="P36" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="Q36" s="62"/>
-      <c r="R36" s="62"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="95"/>
-      <c r="U36" s="95"/>
-      <c r="V36" s="95"/>
-      <c r="W36" s="96"/>
-      <c r="X36" s="56" t="s">
+      <c r="Q36" s="67"/>
+      <c r="R36" s="67"/>
+      <c r="S36" s="67"/>
+      <c r="T36" s="68"/>
+      <c r="U36" s="68"/>
+      <c r="V36" s="68"/>
+      <c r="W36" s="69"/>
+      <c r="X36" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="58"/>
+      <c r="Y36" s="81"/>
+      <c r="Z36" s="82"/>
     </row>
     <row r="37" spans="1:39">
-      <c r="A37" s="51"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="H37" s="74"/>
-      <c r="I37" s="68"/>
-      <c r="J37" s="68"/>
-      <c r="K37" s="68"/>
-      <c r="L37" s="97"/>
-      <c r="M37" s="97"/>
-      <c r="N37" s="97"/>
-      <c r="O37" s="98"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="68"/>
-      <c r="R37" s="68"/>
-      <c r="S37" s="68"/>
-      <c r="T37" s="97"/>
-      <c r="U37" s="97"/>
-      <c r="V37" s="97"/>
-      <c r="W37" s="98"/>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="60"/>
-      <c r="Z37" s="61"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="65"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="65"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="72"/>
+      <c r="N37" s="72"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="70"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="71"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="73"/>
+      <c r="X37" s="83"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="85"/>
     </row>
     <row r="38" spans="1:39">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="52"/>
-      <c r="C38" s="53" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="53"/>
-      <c r="H38" s="94" t="s">
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="H38" s="66" t="s">
         <v>56</v>
       </c>
-      <c r="I38" s="62"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="95"/>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="96"/>
-      <c r="P38" s="94" t="s">
+      <c r="I38" s="67"/>
+      <c r="J38" s="67"/>
+      <c r="K38" s="67"/>
+      <c r="L38" s="68"/>
+      <c r="M38" s="68"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="69"/>
+      <c r="P38" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="Q38" s="62"/>
-      <c r="R38" s="62"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="95"/>
-      <c r="U38" s="95"/>
-      <c r="V38" s="95"/>
-      <c r="W38" s="96"/>
-      <c r="X38" s="56" t="s">
+      <c r="Q38" s="67"/>
+      <c r="R38" s="67"/>
+      <c r="S38" s="67"/>
+      <c r="T38" s="68"/>
+      <c r="U38" s="68"/>
+      <c r="V38" s="68"/>
+      <c r="W38" s="69"/>
+      <c r="X38" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="Y38" s="57"/>
-      <c r="Z38" s="58"/>
+      <c r="Y38" s="81"/>
+      <c r="Z38" s="82"/>
     </row>
     <row r="39" spans="1:39">
-      <c r="A39" s="51"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="53"/>
-      <c r="F39" s="53"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="74"/>
-      <c r="Q39" s="68"/>
-      <c r="R39" s="68"/>
-      <c r="S39" s="68"/>
-      <c r="T39" s="97"/>
-      <c r="U39" s="97"/>
-      <c r="V39" s="97"/>
-      <c r="W39" s="98"/>
-      <c r="X39" s="59"/>
-      <c r="Y39" s="60"/>
-      <c r="Z39" s="61"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="71"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="72"/>
+      <c r="N39" s="72"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="70"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="71"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="73"/>
+      <c r="X39" s="83"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="85"/>
     </row>
     <row r="40" spans="1:39">
-      <c r="C40" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D40" s="88"/>
-      <c r="E40" s="88"/>
-      <c r="F40" s="88"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="88"/>
-      <c r="I40" s="88"/>
-      <c r="J40" s="88"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
-      <c r="S40" s="88"/>
-      <c r="T40" s="88"/>
-      <c r="U40" s="88"/>
-      <c r="V40" s="88"/>
-      <c r="W40" s="88"/>
-      <c r="X40" s="88"/>
-      <c r="Y40" s="88"/>
-      <c r="Z40" s="88"/>
+      <c r="C40" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="74"/>
+      <c r="L40" s="74"/>
+      <c r="M40" s="74"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="74"/>
+      <c r="T40" s="74"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="74"/>
+      <c r="X40" s="74"/>
+      <c r="Y40" s="74"/>
+      <c r="Z40" s="74"/>
     </row>
     <row r="41" spans="1:39">
       <c r="C41" s="4"/>
@@ -7791,6 +9259,113 @@
     </row>
   </sheetData>
   <mergeCells count="131">
+    <mergeCell ref="A24:B25"/>
+    <mergeCell ref="C24:AH25"/>
+    <mergeCell ref="J4:K5"/>
+    <mergeCell ref="J6:K7"/>
+    <mergeCell ref="J8:K9"/>
+    <mergeCell ref="X38:Z39"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="B6:E7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B8:E9"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J10:K11"/>
+    <mergeCell ref="M8:P9"/>
+    <mergeCell ref="J14:K15"/>
+    <mergeCell ref="J16:K17"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J12:K13"/>
+    <mergeCell ref="B18:I18"/>
+    <mergeCell ref="B16:E17"/>
+    <mergeCell ref="F16:I17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="Q6:R7"/>
+    <mergeCell ref="Q8:R9"/>
+    <mergeCell ref="Q10:R11"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="S16:AH16"/>
+    <mergeCell ref="AF20:AF21"/>
+    <mergeCell ref="AG20:AG21"/>
+    <mergeCell ref="AC20:AC21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="B14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="P20:P21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="AB2:AC3"/>
+    <mergeCell ref="AB4:AC5"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="M14:P14"/>
+    <mergeCell ref="T2:W3"/>
+    <mergeCell ref="X2:AA3"/>
+    <mergeCell ref="T4:W5"/>
+    <mergeCell ref="X4:AA5"/>
+    <mergeCell ref="T6:AA6"/>
+    <mergeCell ref="M10:P11"/>
+    <mergeCell ref="M12:P13"/>
+    <mergeCell ref="Q2:R3"/>
+    <mergeCell ref="Q12:R13"/>
+    <mergeCell ref="M2:P3"/>
+    <mergeCell ref="M4:P5"/>
+    <mergeCell ref="M6:P7"/>
+    <mergeCell ref="R20:R21"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="AA20:AA21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="X20:X21"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="C40:Z40"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="AF26:AF27"/>
+    <mergeCell ref="AG26:AG27"/>
+    <mergeCell ref="W26:W27"/>
+    <mergeCell ref="X26:X27"/>
+    <mergeCell ref="Y26:Y27"/>
+    <mergeCell ref="Z26:Z27"/>
+    <mergeCell ref="AE26:AE27"/>
+    <mergeCell ref="C26:V27"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="C36:F37"/>
+    <mergeCell ref="H36:O37"/>
+    <mergeCell ref="K32:N33"/>
+    <mergeCell ref="X36:Z37"/>
+    <mergeCell ref="C28:AH28"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="L29:M29"/>
     <mergeCell ref="AB20:AB21"/>
     <mergeCell ref="S20:S21"/>
     <mergeCell ref="T20:T21"/>
@@ -7815,113 +9390,6 @@
     <mergeCell ref="AD20:AD21"/>
     <mergeCell ref="AE20:AE21"/>
     <mergeCell ref="O20:O21"/>
-    <mergeCell ref="C40:Z40"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="AF26:AF27"/>
-    <mergeCell ref="AG26:AG27"/>
-    <mergeCell ref="W26:W27"/>
-    <mergeCell ref="X26:X27"/>
-    <mergeCell ref="Y26:Y27"/>
-    <mergeCell ref="Z26:Z27"/>
-    <mergeCell ref="AE26:AE27"/>
-    <mergeCell ref="C26:V27"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="C36:F37"/>
-    <mergeCell ref="H36:O37"/>
-    <mergeCell ref="K32:N33"/>
-    <mergeCell ref="X36:Z37"/>
-    <mergeCell ref="C28:AH28"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="R20:R21"/>
-    <mergeCell ref="Z20:Z21"/>
-    <mergeCell ref="AA20:AA21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="X20:X21"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="AB2:AC3"/>
-    <mergeCell ref="AB4:AC5"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="M1:P1"/>
-    <mergeCell ref="M14:P14"/>
-    <mergeCell ref="T2:W3"/>
-    <mergeCell ref="X2:AA3"/>
-    <mergeCell ref="T4:W5"/>
-    <mergeCell ref="X4:AA5"/>
-    <mergeCell ref="T6:AA6"/>
-    <mergeCell ref="M10:P11"/>
-    <mergeCell ref="M12:P13"/>
-    <mergeCell ref="Q2:R3"/>
-    <mergeCell ref="Q12:R13"/>
-    <mergeCell ref="M2:P3"/>
-    <mergeCell ref="M4:P5"/>
-    <mergeCell ref="M6:P7"/>
-    <mergeCell ref="S16:AH16"/>
-    <mergeCell ref="AF20:AF21"/>
-    <mergeCell ref="AG20:AG21"/>
-    <mergeCell ref="AC20:AC21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="B14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B10:E11"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="P20:P21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="Q6:R7"/>
-    <mergeCell ref="Q8:R9"/>
-    <mergeCell ref="Q10:R11"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B2:E3"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:AH25"/>
-    <mergeCell ref="J4:K5"/>
-    <mergeCell ref="J6:K7"/>
-    <mergeCell ref="J8:K9"/>
-    <mergeCell ref="X38:Z39"/>
-    <mergeCell ref="A26:B27"/>
-    <mergeCell ref="F10:I11"/>
-    <mergeCell ref="B6:E7"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B8:E9"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J10:K11"/>
-    <mergeCell ref="M8:P9"/>
-    <mergeCell ref="J14:K15"/>
-    <mergeCell ref="J16:K17"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="J12:K13"/>
-    <mergeCell ref="B18:I18"/>
-    <mergeCell ref="B16:E17"/>
-    <mergeCell ref="F16:I17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7936,8 +9404,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AG48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -7996,124 +9464,124 @@
       </c>
     </row>
     <row r="3" spans="2:33">
-      <c r="B3" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="105"/>
-      <c r="O3" s="78" t="s">
+      <c r="B3" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="94" t="s">
+      <c r="P3" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="Q3" s="105"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="2:33">
-      <c r="B4" s="74"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="106"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="107"/>
-      <c r="Q4" s="106"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="135"/>
+      <c r="Q4" s="122"/>
     </row>
     <row r="6" spans="2:33" s="18" customFormat="1">
-      <c r="B6" s="102" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="103"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
-      <c r="I6" s="103"/>
-      <c r="J6" s="103"/>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="103"/>
-      <c r="N6" s="103"/>
-      <c r="O6" s="103"/>
-      <c r="P6" s="103"/>
-      <c r="Q6" s="104"/>
+      <c r="B6" s="128" t="s">
+        <v>101</v>
+      </c>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="129"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="129"/>
+      <c r="L6" s="129"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="129"/>
+      <c r="O6" s="129"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="130"/>
     </row>
     <row r="9" spans="2:33">
-      <c r="B9" s="136" t="s">
+      <c r="B9" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="136"/>
-      <c r="F9" s="136" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="136"/>
-      <c r="H9" s="136"/>
-      <c r="I9" s="136"/>
-      <c r="J9" s="136" t="s">
+      <c r="G9" s="108"/>
+      <c r="H9" s="108"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="136"/>
-      <c r="L9" s="136"/>
-      <c r="M9" s="136"/>
-      <c r="N9" s="136" t="s">
+      <c r="K9" s="108"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="136"/>
-      <c r="P9" s="136"/>
-      <c r="Q9" s="136"/>
-      <c r="R9" s="136" t="s">
+      <c r="O9" s="108"/>
+      <c r="P9" s="108"/>
+      <c r="Q9" s="108"/>
+      <c r="R9" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="136" t="s">
+      <c r="S9" s="108"/>
+      <c r="T9" s="108"/>
+      <c r="U9" s="108"/>
+      <c r="V9" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="W9" s="136"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="136" t="s">
+      <c r="W9" s="108"/>
+      <c r="X9" s="108"/>
+      <c r="Y9" s="108"/>
+      <c r="Z9" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="AA9" s="136"/>
-      <c r="AB9" s="136"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="136" t="s">
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="108"/>
+      <c r="AC9" s="108"/>
+      <c r="AD9" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="136"/>
-      <c r="AG9" s="136"/>
+      <c r="AE9" s="108"/>
+      <c r="AF9" s="108"/>
+      <c r="AG9" s="108"/>
     </row>
     <row r="10" spans="2:33">
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="100"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="7"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -8122,14 +9590,14 @@
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="123"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="107"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
       <c r="V10" s="7"/>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
@@ -8144,50 +9612,50 @@
       <c r="AG10" s="3"/>
     </row>
     <row r="11" spans="2:33">
-      <c r="B11" s="111"/>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="73" t="s">
+      <c r="B11" s="109"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="123"/>
-      <c r="H11" s="123"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="123"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
-      <c r="M11" s="124"/>
-      <c r="N11" s="73" t="s">
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="116"/>
+      <c r="N11" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="123"/>
-      <c r="T11" s="123"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="123"/>
-      <c r="X11" s="123"/>
-      <c r="Y11" s="124"/>
-      <c r="Z11" s="144" t="s">
+      <c r="O11" s="115"/>
+      <c r="P11" s="115"/>
+      <c r="Q11" s="115"/>
+      <c r="R11" s="115"/>
+      <c r="S11" s="115"/>
+      <c r="T11" s="115"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="115"/>
+      <c r="W11" s="115"/>
+      <c r="X11" s="115"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="AA11" s="145"/>
-      <c r="AB11" s="145"/>
-      <c r="AC11" s="145"/>
-      <c r="AD11" s="145"/>
-      <c r="AE11" s="145"/>
-      <c r="AF11" s="145"/>
-      <c r="AG11" s="146"/>
+      <c r="AA11" s="119"/>
+      <c r="AB11" s="119"/>
+      <c r="AC11" s="119"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="120"/>
     </row>
     <row r="12" spans="2:33">
-      <c r="B12" s="140"/>
-      <c r="C12" s="141"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="142"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="114"/>
       <c r="F12" s="8"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
@@ -8196,14 +9664,14 @@
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
       <c r="M12" s="10"/>
-      <c r="N12" s="74"/>
-      <c r="O12" s="147"/>
-      <c r="P12" s="147"/>
-      <c r="Q12" s="147"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="106"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
+      <c r="Q12" s="121"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121"/>
+      <c r="U12" s="122"/>
       <c r="V12" s="8"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -8268,76 +9736,76 @@
       </c>
     </row>
     <row r="16" spans="2:33">
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="108" t="s">
+      <c r="F16" s="123" t="s">
         <v>72</v>
       </c>
-      <c r="G16" s="108">
+      <c r="G16" s="123">
         <v>0</v>
       </c>
-      <c r="H16" s="108" t="s">
+      <c r="H16" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="I16" s="80" t="s">
+      <c r="I16" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="91"/>
-      <c r="M16" s="108" t="s">
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="77"/>
+      <c r="M16" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="N16" s="80" t="s">
+      <c r="N16" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="O16" s="91"/>
-      <c r="P16" s="108" t="s">
+      <c r="O16" s="77"/>
+      <c r="P16" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="Q16" s="80" t="s">
+      <c r="Q16" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="R16" s="90"/>
-      <c r="S16" s="90"/>
-      <c r="T16" s="91"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="77"/>
     </row>
     <row r="17" spans="2:33">
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-      <c r="I17" s="111"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="111"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="109"/>
-      <c r="Q17" s="111"/>
-      <c r="R17" s="113"/>
-      <c r="S17" s="113"/>
-      <c r="T17" s="112"/>
+      <c r="E17" s="124"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="124"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="127"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="124"/>
+      <c r="N17" s="109"/>
+      <c r="O17" s="126"/>
+      <c r="P17" s="124"/>
+      <c r="Q17" s="109"/>
+      <c r="R17" s="127"/>
+      <c r="S17" s="127"/>
+      <c r="T17" s="126"/>
     </row>
     <row r="18" spans="2:33">
-      <c r="E18" s="110"/>
-      <c r="F18" s="110"/>
-      <c r="G18" s="110"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="92"/>
-      <c r="L18" s="93"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="93"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="81"/>
-      <c r="R18" s="92"/>
-      <c r="S18" s="92"/>
-      <c r="T18" s="93"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="125"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="78"/>
+      <c r="K18" s="78"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="125"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="78"/>
+      <c r="S18" s="78"/>
+      <c r="T18" s="79"/>
     </row>
     <row r="19" spans="2:33">
       <c r="B19" s="15"/>
@@ -8406,98 +9874,98 @@
       <c r="AG19" s="12"/>
     </row>
     <row r="20" spans="2:33">
-      <c r="B20" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" s="103"/>
-      <c r="D20" s="103"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="103"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="103"/>
-      <c r="M20" s="103"/>
-      <c r="N20" s="103"/>
-      <c r="O20" s="103"/>
-      <c r="P20" s="103"/>
-      <c r="Q20" s="103"/>
-      <c r="R20" s="103"/>
-      <c r="S20" s="103"/>
-      <c r="T20" s="103"/>
-      <c r="U20" s="103"/>
-      <c r="V20" s="103"/>
-      <c r="W20" s="103"/>
-      <c r="X20" s="103"/>
-      <c r="Y20" s="103"/>
-      <c r="Z20" s="103"/>
-      <c r="AA20" s="103"/>
-      <c r="AB20" s="103"/>
-      <c r="AC20" s="103"/>
-      <c r="AD20" s="103"/>
-      <c r="AE20" s="103"/>
-      <c r="AF20" s="103"/>
-      <c r="AG20" s="104"/>
+      <c r="B20" s="128" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="129"/>
+      <c r="D20" s="129"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="129"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="129"/>
+      <c r="K20" s="129"/>
+      <c r="L20" s="129"/>
+      <c r="M20" s="129"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="129"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="129"/>
+      <c r="R20" s="129"/>
+      <c r="S20" s="129"/>
+      <c r="T20" s="129"/>
+      <c r="U20" s="129"/>
+      <c r="V20" s="129"/>
+      <c r="W20" s="129"/>
+      <c r="X20" s="129"/>
+      <c r="Y20" s="129"/>
+      <c r="Z20" s="129"/>
+      <c r="AA20" s="129"/>
+      <c r="AB20" s="129"/>
+      <c r="AC20" s="129"/>
+      <c r="AD20" s="129"/>
+      <c r="AE20" s="129"/>
+      <c r="AF20" s="129"/>
+      <c r="AG20" s="130"/>
     </row>
     <row r="23" spans="2:33">
-      <c r="B23" s="136" t="s">
+      <c r="B23" s="108" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136" t="s">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="136"/>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="136" t="s">
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="K23" s="136"/>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136" t="s">
+      <c r="K23" s="108"/>
+      <c r="L23" s="108"/>
+      <c r="M23" s="108"/>
+      <c r="N23" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="O23" s="136"/>
-      <c r="P23" s="136"/>
-      <c r="Q23" s="136"/>
-      <c r="R23" s="136" t="s">
+      <c r="O23" s="108"/>
+      <c r="P23" s="108"/>
+      <c r="Q23" s="108"/>
+      <c r="R23" s="108" t="s">
         <v>66</v>
       </c>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136" t="s">
+      <c r="S23" s="108"/>
+      <c r="T23" s="108"/>
+      <c r="U23" s="108"/>
+      <c r="V23" s="108" t="s">
         <v>67</v>
       </c>
-      <c r="W23" s="136"/>
-      <c r="X23" s="136"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136" t="s">
+      <c r="W23" s="108"/>
+      <c r="X23" s="108"/>
+      <c r="Y23" s="108"/>
+      <c r="Z23" s="108" t="s">
         <v>68</v>
       </c>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136" t="s">
+      <c r="AA23" s="108"/>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="108"/>
+      <c r="AD23" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="136"/>
-      <c r="AG23" s="136"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="108"/>
+      <c r="AG23" s="108"/>
     </row>
     <row r="24" spans="2:33">
-      <c r="B24" s="114" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="100"/>
+      <c r="B24" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="61"/>
       <c r="F24" s="7"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -8506,14 +9974,14 @@
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="123"/>
-      <c r="T24" s="123"/>
-      <c r="U24" s="123"/>
+      <c r="N24" s="107"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="107"/>
+      <c r="S24" s="115"/>
+      <c r="T24" s="115"/>
+      <c r="U24" s="115"/>
       <c r="V24" s="7"/>
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
@@ -8528,50 +9996,50 @@
       <c r="AG24" s="3"/>
     </row>
     <row r="25" spans="2:33">
-      <c r="B25" s="111"/>
-      <c r="C25" s="138"/>
-      <c r="D25" s="138"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="73" t="s">
+      <c r="B25" s="109"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="111"/>
+      <c r="F25" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="G25" s="123"/>
-      <c r="H25" s="123"/>
-      <c r="I25" s="123"/>
-      <c r="J25" s="123"/>
-      <c r="K25" s="123"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="124"/>
-      <c r="N25" s="73" t="s">
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="123"/>
-      <c r="T25" s="123"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="123"/>
-      <c r="X25" s="123"/>
-      <c r="Y25" s="124"/>
-      <c r="Z25" s="144" t="s">
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="115"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="115"/>
+      <c r="W25" s="115"/>
+      <c r="X25" s="115"/>
+      <c r="Y25" s="116"/>
+      <c r="Z25" s="118" t="s">
         <v>71</v>
       </c>
-      <c r="AA25" s="145"/>
-      <c r="AB25" s="145"/>
-      <c r="AC25" s="145"/>
-      <c r="AD25" s="145"/>
-      <c r="AE25" s="145"/>
-      <c r="AF25" s="145"/>
-      <c r="AG25" s="146"/>
+      <c r="AA25" s="119"/>
+      <c r="AB25" s="119"/>
+      <c r="AC25" s="119"/>
+      <c r="AD25" s="119"/>
+      <c r="AE25" s="119"/>
+      <c r="AF25" s="119"/>
+      <c r="AG25" s="120"/>
     </row>
     <row r="26" spans="2:33">
-      <c r="B26" s="140"/>
-      <c r="C26" s="141"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="142"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
       <c r="F26" s="8"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
@@ -8580,14 +10048,14 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
       <c r="M26" s="10"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="147"/>
-      <c r="P26" s="147"/>
-      <c r="Q26" s="147"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="106"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="121"/>
+      <c r="P26" s="121"/>
+      <c r="Q26" s="121"/>
+      <c r="R26" s="70"/>
+      <c r="S26" s="121"/>
+      <c r="T26" s="121"/>
+      <c r="U26" s="122"/>
       <c r="V26" s="8"/>
       <c r="W26" s="9"/>
       <c r="X26" s="9"/>
@@ -8652,76 +10120,76 @@
       </c>
     </row>
     <row r="30" spans="2:33">
-      <c r="E30" s="108" t="s">
+      <c r="E30" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="F30" s="137" t="s">
+      <c r="F30" s="132" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="123">
+        <v>0</v>
+      </c>
+      <c r="H30" s="123" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="59" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="76"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="77"/>
+      <c r="M30" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="O30" s="77"/>
+      <c r="P30" s="123" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="108">
-        <v>0</v>
-      </c>
-      <c r="H30" s="108" t="s">
-        <v>73</v>
-      </c>
-      <c r="I30" s="80" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-      <c r="M30" s="108" t="s">
-        <v>75</v>
-      </c>
-      <c r="N30" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="O30" s="91"/>
-      <c r="P30" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q30" s="80" t="s">
+      <c r="Q30" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="R30" s="90"/>
-      <c r="S30" s="90"/>
-      <c r="T30" s="91"/>
+      <c r="R30" s="76"/>
+      <c r="S30" s="76"/>
+      <c r="T30" s="77"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="E31" s="109"/>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="111"/>
-      <c r="J31" s="113"/>
-      <c r="K31" s="113"/>
-      <c r="L31" s="112"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="111"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="109"/>
-      <c r="Q31" s="111"/>
-      <c r="R31" s="113"/>
-      <c r="S31" s="113"/>
-      <c r="T31" s="112"/>
+      <c r="E31" s="124"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="124"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="127"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="124"/>
+      <c r="N31" s="109"/>
+      <c r="O31" s="126"/>
+      <c r="P31" s="124"/>
+      <c r="Q31" s="109"/>
+      <c r="R31" s="127"/>
+      <c r="S31" s="127"/>
+      <c r="T31" s="126"/>
     </row>
     <row r="32" spans="2:33">
-      <c r="E32" s="110"/>
-      <c r="F32" s="110"/>
-      <c r="G32" s="110"/>
-      <c r="H32" s="110"/>
-      <c r="I32" s="81"/>
-      <c r="J32" s="92"/>
-      <c r="K32" s="92"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="110"/>
-      <c r="N32" s="81"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="110"/>
-      <c r="Q32" s="81"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="93"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="78"/>
+      <c r="K32" s="78"/>
+      <c r="L32" s="79"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="60"/>
+      <c r="O32" s="79"/>
+      <c r="P32" s="125"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="78"/>
+      <c r="S32" s="78"/>
+      <c r="T32" s="79"/>
     </row>
     <row r="33" spans="2:33">
       <c r="B33" s="15"/>
@@ -8758,102 +10226,102 @@
       <c r="AG33" s="12"/>
     </row>
     <row r="34" spans="2:33">
-      <c r="B34" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="103"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="103"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="103"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="103"/>
-      <c r="M34" s="103"/>
-      <c r="N34" s="103"/>
-      <c r="O34" s="103"/>
-      <c r="P34" s="103"/>
-      <c r="Q34" s="103"/>
-      <c r="R34" s="103"/>
-      <c r="S34" s="103"/>
-      <c r="T34" s="103"/>
-      <c r="U34" s="103"/>
-      <c r="V34" s="103"/>
-      <c r="W34" s="103"/>
-      <c r="X34" s="103"/>
-      <c r="Y34" s="103"/>
-      <c r="Z34" s="103"/>
-      <c r="AA34" s="103"/>
-      <c r="AB34" s="103"/>
-      <c r="AC34" s="103"/>
-      <c r="AD34" s="103"/>
-      <c r="AE34" s="103"/>
-      <c r="AF34" s="103"/>
-      <c r="AG34" s="104"/>
+      <c r="B34" s="128" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="129"/>
+      <c r="D34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="129"/>
+      <c r="Q34" s="129"/>
+      <c r="R34" s="129"/>
+      <c r="S34" s="129"/>
+      <c r="T34" s="129"/>
+      <c r="U34" s="129"/>
+      <c r="V34" s="129"/>
+      <c r="W34" s="129"/>
+      <c r="X34" s="129"/>
+      <c r="Y34" s="129"/>
+      <c r="Z34" s="129"/>
+      <c r="AA34" s="129"/>
+      <c r="AB34" s="129"/>
+      <c r="AC34" s="129"/>
+      <c r="AD34" s="129"/>
+      <c r="AE34" s="129"/>
+      <c r="AF34" s="129"/>
+      <c r="AG34" s="130"/>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="133" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="108"/>
+      <c r="D37" s="108"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="135" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="135" t="s">
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="108"/>
+      <c r="J37" s="133" t="s">
+        <v>91</v>
+      </c>
+      <c r="K37" s="108"/>
+      <c r="L37" s="108"/>
+      <c r="M37" s="108"/>
+      <c r="N37" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="135" t="s">
+      <c r="O37" s="108"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="108"/>
+      <c r="R37" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="O37" s="136"/>
-      <c r="P37" s="136"/>
-      <c r="Q37" s="136"/>
-      <c r="R37" s="135" t="s">
+      <c r="S37" s="108"/>
+      <c r="T37" s="108"/>
+      <c r="U37" s="108"/>
+      <c r="V37" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="S37" s="136"/>
-      <c r="T37" s="136"/>
-      <c r="U37" s="136"/>
-      <c r="V37" s="135" t="s">
-        <v>95</v>
-      </c>
-      <c r="W37" s="136"/>
-      <c r="X37" s="136"/>
-      <c r="Y37" s="136"/>
-      <c r="Z37" s="135" t="s">
+      <c r="W37" s="108"/>
+      <c r="X37" s="108"/>
+      <c r="Y37" s="108"/>
+      <c r="Z37" s="133" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA37" s="108"/>
+      <c r="AB37" s="108"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="133" t="s">
         <v>97</v>
       </c>
-      <c r="AA37" s="136"/>
-      <c r="AB37" s="136"/>
-      <c r="AC37" s="136"/>
-      <c r="AD37" s="135" t="s">
-        <v>98</v>
-      </c>
-      <c r="AE37" s="136"/>
-      <c r="AF37" s="136"/>
-      <c r="AG37" s="136"/>
+      <c r="AE37" s="108"/>
+      <c r="AF37" s="108"/>
+      <c r="AG37" s="108"/>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="114" t="s">
-        <v>91</v>
-      </c>
-      <c r="C38" s="115"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="115"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
+      <c r="B38" s="131" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="136"/>
+      <c r="D38" s="136"/>
+      <c r="E38" s="136"/>
+      <c r="F38" s="136"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="136"/>
+      <c r="I38" s="137"/>
       <c r="J38" s="7"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
@@ -8870,64 +10338,64 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="3"/>
-      <c r="Z38" s="114" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA38" s="115"/>
-      <c r="AB38" s="115"/>
-      <c r="AC38" s="115"/>
-      <c r="AD38" s="115"/>
-      <c r="AE38" s="115"/>
-      <c r="AF38" s="115"/>
-      <c r="AG38" s="116"/>
+      <c r="Z38" s="131" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA38" s="136"/>
+      <c r="AB38" s="136"/>
+      <c r="AC38" s="136"/>
+      <c r="AD38" s="136"/>
+      <c r="AE38" s="136"/>
+      <c r="AF38" s="136"/>
+      <c r="AG38" s="137"/>
     </row>
     <row r="39" spans="2:33">
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
-      <c r="E39" s="118"/>
-      <c r="F39" s="118"/>
-      <c r="G39" s="118"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="73" t="s">
+      <c r="B39" s="138"/>
+      <c r="C39" s="139"/>
+      <c r="D39" s="139"/>
+      <c r="E39" s="139"/>
+      <c r="F39" s="139"/>
+      <c r="G39" s="139"/>
+      <c r="H39" s="139"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="K39" s="123"/>
-      <c r="L39" s="123"/>
-      <c r="M39" s="123"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="124"/>
-      <c r="R39" s="125" t="s">
-        <v>96</v>
-      </c>
-      <c r="S39" s="123"/>
-      <c r="T39" s="123"/>
-      <c r="U39" s="123"/>
-      <c r="V39" s="123"/>
-      <c r="W39" s="123"/>
-      <c r="X39" s="123"/>
-      <c r="Y39" s="124"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="118"/>
-      <c r="AB39" s="118"/>
-      <c r="AC39" s="118"/>
-      <c r="AD39" s="118"/>
-      <c r="AE39" s="118"/>
-      <c r="AF39" s="118"/>
-      <c r="AG39" s="119"/>
+      <c r="K39" s="115"/>
+      <c r="L39" s="115"/>
+      <c r="M39" s="115"/>
+      <c r="N39" s="115"/>
+      <c r="O39" s="115"/>
+      <c r="P39" s="115"/>
+      <c r="Q39" s="116"/>
+      <c r="R39" s="144" t="s">
+        <v>95</v>
+      </c>
+      <c r="S39" s="115"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="115"/>
+      <c r="V39" s="115"/>
+      <c r="W39" s="115"/>
+      <c r="X39" s="115"/>
+      <c r="Y39" s="116"/>
+      <c r="Z39" s="138"/>
+      <c r="AA39" s="139"/>
+      <c r="AB39" s="139"/>
+      <c r="AC39" s="139"/>
+      <c r="AD39" s="139"/>
+      <c r="AE39" s="139"/>
+      <c r="AF39" s="139"/>
+      <c r="AG39" s="140"/>
     </row>
     <row r="40" spans="2:33">
-      <c r="B40" s="120"/>
-      <c r="C40" s="121"/>
-      <c r="D40" s="121"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
-      <c r="G40" s="121"/>
-      <c r="H40" s="121"/>
-      <c r="I40" s="122"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="143"/>
       <c r="J40" s="8"/>
       <c r="K40" s="9"/>
       <c r="L40" s="9"/>
@@ -8944,14 +10412,14 @@
       <c r="W40" s="9"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="120"/>
-      <c r="AA40" s="121"/>
-      <c r="AB40" s="121"/>
-      <c r="AC40" s="121"/>
-      <c r="AD40" s="121"/>
-      <c r="AE40" s="121"/>
-      <c r="AF40" s="121"/>
-      <c r="AG40" s="122"/>
+      <c r="Z40" s="141"/>
+      <c r="AA40" s="142"/>
+      <c r="AB40" s="142"/>
+      <c r="AC40" s="142"/>
+      <c r="AD40" s="142"/>
+      <c r="AE40" s="142"/>
+      <c r="AF40" s="142"/>
+      <c r="AG40" s="143"/>
     </row>
     <row r="43" spans="2:33">
       <c r="I43" s="11">
@@ -9004,113 +10472,174 @@
       </c>
     </row>
     <row r="44" spans="2:33">
-      <c r="I44" s="108" t="s">
+      <c r="I44" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="J44" s="80" t="s">
+      <c r="J44" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="K44" s="91"/>
-      <c r="L44" s="108" t="s">
-        <v>87</v>
-      </c>
-      <c r="M44" s="80" t="s">
+      <c r="K44" s="77"/>
+      <c r="L44" s="123" t="s">
+        <v>86</v>
+      </c>
+      <c r="M44" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="91"/>
-      <c r="Q44" s="108">
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="123">
         <v>0</v>
       </c>
-      <c r="R44" s="137">
+      <c r="R44" s="132">
         <v>0</v>
       </c>
-      <c r="S44" s="108">
+      <c r="S44" s="123">
         <v>0</v>
       </c>
-      <c r="T44" s="126" t="s">
+      <c r="T44" s="145" t="s">
+        <v>99</v>
+      </c>
+      <c r="U44" s="146"/>
+      <c r="V44" s="146"/>
+      <c r="W44" s="146"/>
+      <c r="X44" s="147"/>
+    </row>
+    <row r="45" spans="2:33">
+      <c r="I45" s="124"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="126"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="109"/>
+      <c r="N45" s="127"/>
+      <c r="O45" s="127"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="124"/>
+      <c r="R45" s="124"/>
+      <c r="S45" s="124"/>
+      <c r="T45" s="148"/>
+      <c r="U45" s="149"/>
+      <c r="V45" s="149"/>
+      <c r="W45" s="149"/>
+      <c r="X45" s="150"/>
+    </row>
+    <row r="46" spans="2:33">
+      <c r="I46" s="125"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="78"/>
+      <c r="O46" s="78"/>
+      <c r="P46" s="79"/>
+      <c r="Q46" s="125"/>
+      <c r="R46" s="125"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="151"/>
+      <c r="U46" s="152"/>
+      <c r="V46" s="152"/>
+      <c r="W46" s="152"/>
+      <c r="X46" s="153"/>
+    </row>
+    <row r="48" spans="2:33">
+      <c r="B48" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="U44" s="127"/>
-      <c r="V44" s="127"/>
-      <c r="W44" s="127"/>
-      <c r="X44" s="128"/>
-    </row>
-    <row r="45" spans="2:33">
-      <c r="I45" s="109"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="112"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="113"/>
-      <c r="O45" s="113"/>
-      <c r="P45" s="112"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="129"/>
-      <c r="U45" s="130"/>
-      <c r="V45" s="130"/>
-      <c r="W45" s="130"/>
-      <c r="X45" s="131"/>
-    </row>
-    <row r="46" spans="2:33">
-      <c r="I46" s="110"/>
-      <c r="J46" s="81"/>
-      <c r="K46" s="93"/>
-      <c r="L46" s="110"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="92"/>
-      <c r="O46" s="92"/>
-      <c r="P46" s="93"/>
-      <c r="Q46" s="110"/>
-      <c r="R46" s="110"/>
-      <c r="S46" s="110"/>
-      <c r="T46" s="132"/>
-      <c r="U46" s="133"/>
-      <c r="V46" s="133"/>
-      <c r="W46" s="133"/>
-      <c r="X46" s="134"/>
-    </row>
-    <row r="48" spans="2:33">
-      <c r="B48" s="102" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="103"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="103"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="103"/>
-      <c r="I48" s="103"/>
-      <c r="J48" s="103"/>
-      <c r="K48" s="103"/>
-      <c r="L48" s="103"/>
-      <c r="M48" s="103"/>
-      <c r="N48" s="103"/>
-      <c r="O48" s="103"/>
-      <c r="P48" s="103"/>
-      <c r="Q48" s="103"/>
-      <c r="R48" s="103"/>
-      <c r="S48" s="103"/>
-      <c r="T48" s="103"/>
-      <c r="U48" s="103"/>
-      <c r="V48" s="103"/>
-      <c r="W48" s="103"/>
-      <c r="X48" s="103"/>
-      <c r="Y48" s="103"/>
-      <c r="Z48" s="103"/>
-      <c r="AA48" s="103"/>
-      <c r="AB48" s="103"/>
-      <c r="AC48" s="103"/>
-      <c r="AD48" s="103"/>
-      <c r="AE48" s="103"/>
-      <c r="AF48" s="103"/>
-      <c r="AG48" s="104"/>
+      <c r="C48" s="129"/>
+      <c r="D48" s="129"/>
+      <c r="E48" s="129"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="129"/>
+      <c r="H48" s="129"/>
+      <c r="I48" s="129"/>
+      <c r="J48" s="129"/>
+      <c r="K48" s="129"/>
+      <c r="L48" s="129"/>
+      <c r="M48" s="129"/>
+      <c r="N48" s="129"/>
+      <c r="O48" s="129"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
+      <c r="R48" s="129"/>
+      <c r="S48" s="129"/>
+      <c r="T48" s="129"/>
+      <c r="U48" s="129"/>
+      <c r="V48" s="129"/>
+      <c r="W48" s="129"/>
+      <c r="X48" s="129"/>
+      <c r="Y48" s="129"/>
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="129"/>
+      <c r="AB48" s="129"/>
+      <c r="AC48" s="129"/>
+      <c r="AD48" s="129"/>
+      <c r="AE48" s="129"/>
+      <c r="AF48" s="129"/>
+      <c r="AG48" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B48:AG48"/>
+    <mergeCell ref="B3:N4"/>
+    <mergeCell ref="B6:Q6"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:Q4"/>
+    <mergeCell ref="I44:I46"/>
+    <mergeCell ref="J44:K46"/>
+    <mergeCell ref="L44:L46"/>
+    <mergeCell ref="M44:P46"/>
+    <mergeCell ref="B38:I40"/>
+    <mergeCell ref="Z38:AG40"/>
+    <mergeCell ref="J39:Q39"/>
+    <mergeCell ref="R39:Y39"/>
+    <mergeCell ref="S44:S46"/>
+    <mergeCell ref="T44:X46"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="Q44:Q46"/>
+    <mergeCell ref="R44:R46"/>
+    <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="AD37:AG37"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="F37:I37"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="N37:Q37"/>
+    <mergeCell ref="R37:U37"/>
+    <mergeCell ref="M30:M32"/>
+    <mergeCell ref="N30:O32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="Q30:T32"/>
+    <mergeCell ref="B34:AG34"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:L32"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="Z23:AC23"/>
+    <mergeCell ref="AD23:AG23"/>
+    <mergeCell ref="B24:E26"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="F25:M25"/>
+    <mergeCell ref="N25:Y25"/>
+    <mergeCell ref="Z25:AG25"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="N23:Q23"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:O18"/>
+    <mergeCell ref="P16:P18"/>
+    <mergeCell ref="Q16:T18"/>
+    <mergeCell ref="B20:AG20"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="H16:H18"/>
+    <mergeCell ref="I16:L18"/>
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="Z9:AC9"/>
     <mergeCell ref="AD9:AG9"/>
@@ -9127,67 +10656,6 @@
     <mergeCell ref="J9:M9"/>
     <mergeCell ref="N9:Q9"/>
     <mergeCell ref="R9:U9"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:O18"/>
-    <mergeCell ref="P16:P18"/>
-    <mergeCell ref="Q16:T18"/>
-    <mergeCell ref="B20:AG20"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:L18"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="Z23:AC23"/>
-    <mergeCell ref="AD23:AG23"/>
-    <mergeCell ref="B24:E26"/>
-    <mergeCell ref="N24:Q24"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="F25:M25"/>
-    <mergeCell ref="N25:Y25"/>
-    <mergeCell ref="Z25:AG25"/>
-    <mergeCell ref="N26:Q26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="N23:Q23"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="M30:M32"/>
-    <mergeCell ref="N30:O32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="Q30:T32"/>
-    <mergeCell ref="B34:AG34"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:L32"/>
-    <mergeCell ref="Q44:Q46"/>
-    <mergeCell ref="R44:R46"/>
-    <mergeCell ref="Z37:AC37"/>
-    <mergeCell ref="AD37:AG37"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="F37:I37"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="R37:U37"/>
-    <mergeCell ref="B48:AG48"/>
-    <mergeCell ref="B3:N4"/>
-    <mergeCell ref="B6:Q6"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:Q4"/>
-    <mergeCell ref="I44:I46"/>
-    <mergeCell ref="J44:K46"/>
-    <mergeCell ref="L44:L46"/>
-    <mergeCell ref="M44:P46"/>
-    <mergeCell ref="B38:I40"/>
-    <mergeCell ref="Z38:AG40"/>
-    <mergeCell ref="J39:Q39"/>
-    <mergeCell ref="R39:Y39"/>
-    <mergeCell ref="S44:S46"/>
-    <mergeCell ref="T44:X46"/>
-    <mergeCell ref="V37:Y37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9212,136 +10680,136 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="C2" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="148" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="105"/>
+      <c r="D2" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="E2" s="134"/>
       <c r="G2" s="24" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="D3" s="149"/>
-      <c r="E3" s="124"/>
+      <c r="D3" s="155"/>
+      <c r="E3" s="116"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="D4" s="149"/>
-      <c r="E4" s="124"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="116"/>
       <c r="G4" s="24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="D5" s="149"/>
-      <c r="E5" s="124"/>
+      <c r="D5" s="155"/>
+      <c r="E5" s="116"/>
       <c r="G5" s="24"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="D6" s="149"/>
-      <c r="E6" s="124"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="116"/>
       <c r="G6" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="D7" s="149"/>
-      <c r="E7" s="124"/>
+      <c r="D7" s="155"/>
+      <c r="E7" s="116"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="D8" s="149"/>
-      <c r="E8" s="124"/>
+      <c r="D8" s="155"/>
+      <c r="E8" s="116"/>
       <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7">
       <c r="C9" s="25"/>
-      <c r="D9" s="149"/>
-      <c r="E9" s="124"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="116"/>
       <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7">
       <c r="C10" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" s="107"/>
-      <c r="E10" s="106"/>
+        <v>148</v>
+      </c>
+      <c r="D10" s="135"/>
+      <c r="E10" s="122"/>
       <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="D11" s="154" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="134"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="D12" s="155"/>
+      <c r="E12" s="116"/>
+      <c r="F12" s="24" t="s">
         <v>349</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="D11" s="148" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="105"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="D12" s="149"/>
-      <c r="E12" s="124"/>
-      <c r="F12" s="24" t="s">
-        <v>351</v>
       </c>
       <c r="G12" s="24"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="107"/>
-      <c r="E13" s="106"/>
+        <v>152</v>
+      </c>
+      <c r="D13" s="135"/>
+      <c r="E13" s="122"/>
       <c r="G13" s="24"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="154" t="s">
+        <v>151</v>
+      </c>
+      <c r="E14" s="134"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="D15" s="155"/>
+      <c r="E15" s="116"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="D16" s="155"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="C14" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="D14" s="148" t="s">
-        <v>152</v>
-      </c>
-      <c r="E14" s="105"/>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="D15" s="149"/>
-      <c r="E15" s="124"/>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="D16" s="149"/>
-      <c r="E16" s="124"/>
-      <c r="F16" s="24" t="s">
-        <v>352</v>
-      </c>
     </row>
     <row r="17" spans="3:5">
-      <c r="D17" s="149"/>
-      <c r="E17" s="124"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="116"/>
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D18" s="107"/>
-      <c r="E18" s="106"/>
+        <v>154</v>
+      </c>
+      <c r="D18" s="135"/>
+      <c r="E18" s="122"/>
     </row>
     <row r="20" spans="3:5">
       <c r="D20" s="24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -9359,7 +10827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
@@ -9371,142 +10839,142 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="26" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="C3" s="24" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="C7" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="2:4">
       <c r="C10" s="24" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="2:4">
       <c r="C11" s="24" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="2:4">
       <c r="C12" s="24" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="14" spans="2:4">
       <c r="B14" s="26" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="2:4">
       <c r="B16" s="26" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D19" t="s">
         <v>269</v>
-      </c>
-      <c r="C19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D19" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C20" t="s">
+        <v>271</v>
+      </c>
+      <c r="D20" t="s">
         <v>272</v>
-      </c>
-      <c r="C20" t="s">
-        <v>273</v>
-      </c>
-      <c r="D20" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="26" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28" s="26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" s="26" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="2:3">
@@ -9514,7 +10982,7 @@
     </row>
     <row r="37" spans="2:3">
       <c r="B37" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="38" spans="2:3">
@@ -9522,7 +10990,7 @@
     </row>
     <row r="39" spans="2:3">
       <c r="B39" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" spans="2:3">
@@ -9530,12 +10998,12 @@
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="43" spans="2:3">
@@ -9543,17 +11011,17 @@
     </row>
     <row r="44" spans="2:3">
       <c r="B44" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="B46" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="B47" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -9565,10 +11033,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:D75"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="C64" workbookViewId="0">
+      <selection activeCell="G88" sqref="G88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -9577,109 +11045,114 @@
     <col min="10" max="10" width="21.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4">
+    <row r="1" spans="1:4">
+      <c r="A1" s="26" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="B2" s="26" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" s="24" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="2:4">
-      <c r="C3" s="24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="1:4">
       <c r="B4" s="24"/>
       <c r="D4" s="24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="B5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="B6" s="24"/>
       <c r="D6" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="C7" s="24" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="B8" s="24"/>
       <c r="D8" s="24" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="B9" s="24"/>
       <c r="D9" s="24" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="B10" s="24"/>
       <c r="D10" s="24" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="B11" s="24"/>
       <c r="D11" s="24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="B12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="B13" s="24"/>
       <c r="D13" s="24" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="B14" s="24"/>
       <c r="D14" s="24" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="B15" s="26" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="D16" s="24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="D17" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="D18" s="24" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="D19" s="24" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="D20" s="24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="27" customFormat="1">
@@ -9687,7 +11160,7 @@
     </row>
     <row r="22" spans="2:4">
       <c r="B22" s="26" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -9696,7 +11169,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D23" s="24"/>
     </row>
@@ -9705,7 +11178,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="24"/>
     </row>
@@ -9714,7 +11187,7 @@
     </row>
     <row r="26" spans="2:4">
       <c r="B26" s="26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="2:4">
@@ -9722,7 +11195,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="2:4">
@@ -9730,12 +11203,12 @@
         <v>2</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="26" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -9743,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="2:4">
@@ -9751,13 +11224,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="27" customFormat="1"/>
     <row r="34" spans="2:4">
       <c r="B34" s="26" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D34" s="24"/>
     </row>
@@ -9766,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D35" s="24"/>
     </row>
@@ -9775,7 +11248,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D36" s="24"/>
     </row>
@@ -9786,7 +11259,7 @@
     </row>
     <row r="38" spans="2:4">
       <c r="B38" s="26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -9794,7 +11267,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -9802,7 +11275,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -9810,7 +11283,7 @@
     </row>
     <row r="42" spans="2:4">
       <c r="B42" s="26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -9818,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43" s="24"/>
     </row>
@@ -9827,12 +11300,12 @@
         <v>2</v>
       </c>
       <c r="C44" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="B46" s="26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -9840,7 +11313,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -9848,12 +11321,12 @@
         <v>2</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="26" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" spans="2:4">
@@ -9861,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D51" s="24"/>
     </row>
@@ -9870,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:4" s="27" customFormat="1">
@@ -9878,7 +11351,7 @@
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D54" s="24"/>
     </row>
@@ -9887,7 +11360,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D55" s="24"/>
     </row>
@@ -9896,7 +11369,7 @@
         <v>2</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57" spans="2:4">
@@ -9904,12 +11377,12 @@
         <v>3</v>
       </c>
       <c r="C57" s="24" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:4">
       <c r="B59" s="26" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="60" spans="2:4">
@@ -9917,7 +11390,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:4">
@@ -9925,7 +11398,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="2:4">
@@ -9933,7 +11406,7 @@
         <v>3</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -9941,61 +11414,201 @@
     </row>
     <row r="64" spans="2:4">
       <c r="B64" s="26" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65" s="24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="24"/>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="1:7">
       <c r="B66">
         <v>2</v>
       </c>
       <c r="C66" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67" s="24"/>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="1:7">
       <c r="B68">
         <v>4</v>
       </c>
       <c r="C68" s="24" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4">
-      <c r="B71" s="24"/>
-    </row>
-    <row r="72" spans="2:4">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="27" customFormat="1">
+      <c r="C69" s="28"/>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="26" t="s">
+        <v>380</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="B71" s="26" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="B72" s="24"/>
-    </row>
-    <row r="73" spans="2:4">
+      <c r="C72" s="26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="B73" s="24"/>
-    </row>
-    <row r="74" spans="2:4">
-      <c r="B74" s="24"/>
-    </row>
-    <row r="75" spans="2:4">
+      <c r="D73" s="26" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="24" customFormat="1">
+      <c r="D74" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="B75" s="24"/>
+      <c r="D75" s="26" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="B76" s="24"/>
+      <c r="D76" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="G76" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="B77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="G77" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="B78" s="24"/>
+      <c r="D78" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="B79" s="24"/>
+      <c r="D79" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="B80" s="24"/>
+      <c r="D80" s="26" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="24"/>
+      <c r="D81" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="G82" s="24" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="G83" s="24" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="24"/>
+      <c r="D84" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="G85" s="24" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="G86" s="24" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="24"/>
+      <c r="D87" s="24" t="s">
+        <v>394</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="24"/>
+      <c r="C88" s="26" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="24"/>
+      <c r="D89" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="D90" s="24" t="s">
+        <v>384</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E70" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10016,73 +11629,73 @@
   <sheetData>
     <row r="2" spans="2:4">
       <c r="B2" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>208</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:4">
       <c r="B3" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="24" t="s">
-        <v>211</v>
-      </c>
       <c r="D3" s="24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="2:4">
       <c r="B4" s="24" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="2:4">
       <c r="B5" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C5" s="24" t="s">
-        <v>215</v>
-      </c>
       <c r="D5" s="24" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="C6" s="24" t="s">
-        <v>217</v>
-      </c>
       <c r="D6" s="24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="2:4">
       <c r="B7" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="C7" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>219</v>
-      </c>
       <c r="D7" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -10093,177 +11706,923 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:C45"/>
+  <dimension ref="A2:L119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="L113" sqref="L113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="11.75" customWidth="1"/>
+    <col min="3" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="9.375" customWidth="1"/>
+    <col min="6" max="6" width="16.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" s="24" t="s">
-        <v>237</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="24" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" s="24" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="24" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="24" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" s="24" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="24" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="26" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="24" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="24" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="32" spans="2:2">
       <c r="B32" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="B34" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" s="26" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="2:3">
       <c r="B38" s="24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C38" s="24" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="2:3">
       <c r="B39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C39" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="2:3">
       <c r="B41" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C41" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="B43" s="26" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="B45" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="26" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="B50" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="B51" s="24" t="s">
+        <v>402</v>
+      </c>
+      <c r="C51" s="24" t="s">
+        <v>406</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="B52" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="C52" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="B53" s="24" t="s">
+        <v>404</v>
+      </c>
+      <c r="C53" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="D57" s="31" t="s">
+        <v>413</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="24" t="s">
+        <v>435</v>
+      </c>
+      <c r="D58" s="31" t="s">
+        <v>417</v>
+      </c>
+      <c r="E58" s="24"/>
+      <c r="F58" s="31" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>430</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="24" t="s">
+        <v>420</v>
+      </c>
+      <c r="F59" s="31" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="31" t="s">
+        <v>429</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="D60" s="31" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" s="31" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="C61" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="D61" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="F61" s="31" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="D62" s="31" t="s">
+        <v>414</v>
+      </c>
+      <c r="F62" s="31" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="D63" s="31" t="s">
+        <v>418</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="D64" s="31" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="C66" s="24" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="C68" s="24" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="C69" s="24"/>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="B70" s="24" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="B71" s="24" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="B72" s="24" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="B73" s="24" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="B74" s="24" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B76" s="34">
+        <v>7</v>
+      </c>
+      <c r="C76" s="160" t="s">
+        <v>445</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="J76" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="L76" s="24" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="B77" s="34">
+        <v>6</v>
+      </c>
+      <c r="C77" s="161"/>
+      <c r="J77" s="24" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="B78" s="34">
+        <v>5</v>
+      </c>
+      <c r="C78" s="161"/>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="B79" s="34">
+        <v>4</v>
+      </c>
+      <c r="C79" s="24" t="s">
+        <v>446</v>
+      </c>
+      <c r="J79" s="24" t="s">
+        <v>487</v>
+      </c>
+      <c r="L79" s="24" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="B80" s="34">
+        <v>3</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="B81" s="34">
+        <v>2</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="J81" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="L81" s="24" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="B82" s="34">
+        <v>1</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>449</v>
+      </c>
+      <c r="J82" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="L82" s="24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="B83" s="34">
+        <v>0</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="J84" s="24" t="s">
+        <v>495</v>
+      </c>
+      <c r="L84" s="24" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B85" s="34">
+        <v>7</v>
+      </c>
+      <c r="C85" s="158" t="s">
+        <v>453</v>
+      </c>
+      <c r="E85" s="24" t="s">
+        <v>455</v>
+      </c>
+      <c r="J85" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="L85" s="24" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="B86" s="34">
+        <v>6</v>
+      </c>
+      <c r="C86" s="159"/>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="B87" s="34">
+        <v>5</v>
+      </c>
+      <c r="C87" s="159"/>
+      <c r="J87" s="24" t="s">
+        <v>498</v>
+      </c>
+      <c r="L87" s="24" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="B88" s="34">
+        <v>4</v>
+      </c>
+      <c r="C88" s="159"/>
+      <c r="J88" s="24" t="s">
+        <v>490</v>
+      </c>
+      <c r="L88" s="24" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="B89" s="34">
+        <v>3</v>
+      </c>
+      <c r="C89" s="159"/>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="B90" s="34">
+        <v>2</v>
+      </c>
+      <c r="C90" s="158" t="s">
+        <v>452</v>
+      </c>
+      <c r="J90" s="24" t="s">
+        <v>499</v>
+      </c>
+      <c r="L90" s="24" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="B91" s="34">
+        <v>1</v>
+      </c>
+      <c r="C91" s="159"/>
+      <c r="J91" s="24" t="s">
+        <v>497</v>
+      </c>
+      <c r="L91" s="24" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="B92" s="34">
+        <v>0</v>
+      </c>
+      <c r="C92" s="159"/>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="J93" s="24" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="B94" s="34">
+        <v>7</v>
+      </c>
+      <c r="C94" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="F94" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="G94" s="34">
+        <v>7</v>
+      </c>
+      <c r="H94" s="158" t="s">
+        <v>468</v>
+      </c>
+      <c r="J94" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="L94" s="24" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="B95" s="34">
+        <v>6</v>
+      </c>
+      <c r="C95" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="F95" s="24" t="s">
+        <v>467</v>
+      </c>
+      <c r="G95" s="34">
+        <v>6</v>
+      </c>
+      <c r="H95" s="159"/>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="B96" s="34">
+        <v>5</v>
+      </c>
+      <c r="C96" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="G96" s="34">
+        <v>5</v>
+      </c>
+      <c r="H96" s="159"/>
+      <c r="J96" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="L96" s="24" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="B97" s="34">
+        <v>4</v>
+      </c>
+      <c r="C97" s="24" t="s">
+        <v>459</v>
+      </c>
+      <c r="G97" s="34">
+        <v>4</v>
+      </c>
+      <c r="H97" s="159"/>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="B98" s="34">
+        <v>3</v>
+      </c>
+      <c r="C98" s="24" t="s">
+        <v>460</v>
+      </c>
+      <c r="G98" s="34">
+        <v>3</v>
+      </c>
+      <c r="H98" s="159"/>
+      <c r="J98" s="24" t="s">
+        <v>508</v>
+      </c>
+      <c r="L98" s="24" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="B99" s="34">
+        <v>2</v>
+      </c>
+      <c r="C99" s="24" t="s">
+        <v>461</v>
+      </c>
+      <c r="G99" s="34">
+        <v>2</v>
+      </c>
+      <c r="H99" s="156" t="s">
+        <v>469</v>
+      </c>
+      <c r="J99" s="24" t="s">
+        <v>509</v>
+      </c>
+      <c r="L99" s="24" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="B100" s="34">
+        <v>1</v>
+      </c>
+      <c r="C100" s="24" t="s">
+        <v>462</v>
+      </c>
+      <c r="G100" s="34">
+        <v>1</v>
+      </c>
+      <c r="H100" s="157"/>
+      <c r="J100" s="24" t="s">
+        <v>510</v>
+      </c>
+      <c r="L100" s="24" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="B101" s="34">
+        <v>0</v>
+      </c>
+      <c r="C101" s="24" t="s">
+        <v>463</v>
+      </c>
+      <c r="G101" s="34">
+        <v>0</v>
+      </c>
+      <c r="H101" s="157"/>
+    </row>
+    <row r="103" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A103" s="24" t="s">
+        <v>471</v>
+      </c>
+      <c r="B103" s="34">
+        <v>7</v>
+      </c>
+      <c r="C103" s="156" t="s">
+        <v>530</v>
+      </c>
+      <c r="F103" s="24" t="s">
+        <v>476</v>
+      </c>
+      <c r="G103" s="34">
+        <v>7</v>
+      </c>
+      <c r="H103" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="J103" s="24" t="s">
+        <v>514</v>
+      </c>
+      <c r="L103" s="24" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="B104" s="34">
+        <v>6</v>
+      </c>
+      <c r="C104" s="156"/>
+      <c r="F104" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="G104" s="34">
+        <v>6</v>
+      </c>
+      <c r="H104" s="24" t="s">
+        <v>478</v>
+      </c>
+      <c r="J104" s="24" t="s">
+        <v>496</v>
+      </c>
+      <c r="L104" s="24" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="B105" s="34">
+        <v>5</v>
+      </c>
+      <c r="C105" s="156"/>
+      <c r="F105" s="24" t="s">
+        <v>519</v>
+      </c>
+      <c r="G105" s="34">
+        <v>5</v>
+      </c>
+      <c r="H105" s="24" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="B106" s="34">
+        <v>4</v>
+      </c>
+      <c r="C106" s="24" t="s">
+        <v>472</v>
+      </c>
+      <c r="G106" s="34">
+        <v>4</v>
+      </c>
+      <c r="H106" s="24" t="s">
+        <v>480</v>
+      </c>
+      <c r="J106" s="24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="B107" s="34">
+        <v>3</v>
+      </c>
+      <c r="C107" s="158" t="s">
+        <v>473</v>
+      </c>
+      <c r="G107" s="34">
+        <v>3</v>
+      </c>
+      <c r="H107" s="24" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="B108" s="34">
+        <v>2</v>
+      </c>
+      <c r="C108" s="158"/>
+      <c r="G108" s="34">
+        <v>2</v>
+      </c>
+      <c r="H108" s="24" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="B109" s="34">
+        <v>1</v>
+      </c>
+      <c r="C109" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="G109" s="34">
+        <v>1</v>
+      </c>
+      <c r="H109" s="24" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="B110" s="34">
+        <v>0</v>
+      </c>
+      <c r="C110" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="G110" s="34">
+        <v>0</v>
+      </c>
+      <c r="H110" s="24" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="F112" s="24" t="s">
+        <v>520</v>
+      </c>
+      <c r="G112" s="34">
+        <v>7</v>
+      </c>
+      <c r="H112" s="24" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="113" spans="6:9">
+      <c r="F113" s="24" t="s">
+        <v>470</v>
+      </c>
+      <c r="G113" s="34">
+        <v>6</v>
+      </c>
+      <c r="H113" s="35" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="114" spans="6:9">
+      <c r="F114" s="24"/>
+      <c r="G114" s="34">
+        <v>5</v>
+      </c>
+      <c r="H114" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="I114" s="24" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="115" spans="6:9">
+      <c r="G115" s="34">
+        <v>4</v>
+      </c>
+      <c r="H115" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="116" spans="6:9">
+      <c r="G116" s="34">
+        <v>3</v>
+      </c>
+      <c r="H116" s="25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="117" spans="6:9">
+      <c r="G117" s="34">
+        <v>2</v>
+      </c>
+      <c r="H117" s="24" t="s">
+        <v>524</v>
+      </c>
+      <c r="I117" s="24" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="118" spans="6:9">
+      <c r="G118" s="34">
+        <v>1</v>
+      </c>
+      <c r="H118" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="I118" s="24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="119" spans="6:9">
+      <c r="G119" s="34">
+        <v>0</v>
+      </c>
+      <c r="H119" s="24" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="H99:H101"/>
+    <mergeCell ref="H94:H98"/>
+    <mergeCell ref="C103:C105"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C90:C92"/>
+    <mergeCell ref="C85:C89"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10273,7 +12632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B22" sqref="B22:B23"/>
     </sheetView>
   </sheetViews>
@@ -10281,25 +12640,25 @@
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" s="26" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -10307,67 +12666,67 @@
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="24" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" spans="2:3">
       <c r="B13" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="24" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="24" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="24" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="24" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="24" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="24" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="26" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="24" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="28" spans="2:2">
@@ -10375,115 +12734,115 @@
     </row>
     <row r="29" spans="2:2">
       <c r="B29" s="24" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="2:2">
       <c r="B31" s="24" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="2:9">
       <c r="B33" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C33" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G33" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="H33" s="24" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="I33" s="24" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="34" spans="2:9">
       <c r="B34" s="24" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F34" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="G34" s="25" t="s">
         <v>325</v>
       </c>
-      <c r="G34" s="25" t="s">
+      <c r="H34" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="H34" s="24" t="s">
-        <v>329</v>
-      </c>
       <c r="I34" s="25" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="2:9">
       <c r="B35" s="24" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C35" s="25" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E35" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="F35" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="F35" s="24" t="s">
+      <c r="G35" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="G35" s="25" t="s">
-        <v>328</v>
-      </c>
       <c r="H35" s="24" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="24" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="2:9">
       <c r="B39" s="24" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="2:9">
       <c r="B40" s="24" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="2:9">
       <c r="B42" s="24" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44" spans="2:9">
       <c r="B44" s="24" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="46" spans="2:9">
@@ -10514,54 +12873,54 @@
     </row>
     <row r="48" spans="2:9">
       <c r="B48" s="24" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="50" spans="2:4">
       <c r="B50" s="24" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D50" s="24" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="51" spans="2:4">
       <c r="D51" s="24" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" spans="2:4">
       <c r="B52" s="24" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D52" s="24" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="53" spans="2:4">
       <c r="D53" s="24" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="54" spans="2:4">
       <c r="B54" s="24" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D54" s="24" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="2:4">
       <c r="B56" s="24" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="57" spans="2:4">
       <c r="B57" s="24" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
